--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -5,19 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9CA814-87BC-46FB-A9B7-71B7474341A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8019EDD-C199-4062-B080-41D7EFB96B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="636" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="testNamedRange" localSheetId="0">Sheet1!$C$37</definedName>
+    <definedName name="testNamedRange" localSheetId="0">Sheet1!$C$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>rc11</t>
   </si>
@@ -87,6 +86,9 @@
   <si>
     <t>UDF Call</t>
   </si>
+  <si>
+    <t>Playground</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +96,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -150,19 +152,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,678 +547,647 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="35.7890625" customWidth="1"/>
     <col min="2" max="2" width="28.734375" customWidth="1"/>
-    <col min="3" max="3" width="20.05078125" customWidth="1"/>
-    <col min="4" max="5" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" customWidth="1"/>
+    <col min="4" max="5" width="11.15625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="str">
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B2)</f>
         <v>=TBXLL_Multiply(10,2)</v>
       </c>
-      <c r="B2" s="5" cm="1">
+      <c r="B2" s="3" cm="1">
         <f t="array" ref="B2">_xll.TBXLL_Multiply(10,2)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="str">
-        <f t="shared" ref="A3:A19" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
+      <c r="C2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3" t="str">
+        <f t="shared" ref="A3:A18" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
         <v>=TBXLL_Multiply("10","2")</v>
       </c>
-      <c r="B3" s="5" cm="1">
+      <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">_xll.TBXLL_Multiply("10","2")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5" t="str">
+      <c r="C3" s="6"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_Multiply(C4,D4)</v>
-      </c>
-      <c r="B4" s="5" cm="1">
-        <f t="array" ref="B4">_xll.TBXLL_Multiply(C4,D4)</f>
+        <v>=TBXLL_Multiply(D4,E4)</v>
+      </c>
+      <c r="B4" s="3" cm="1">
+        <f t="array" ref="B4">_xll.TBXLL_Multiply(D4,E4)</f>
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6"/>
+      <c r="D4">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="str">
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2)</v>
       </c>
-      <c r="B5" s="5" cm="1">
+      <c r="B5" s="3" cm="1">
         <f t="array" ref="B5">_xll.TBXLL_AddOptional(1,2)</f>
         <v>3</v>
       </c>
-      <c r="F5" t="str">
-        <f>ADDRESS(2,3)</f>
-        <v>$C$2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5" t="str">
+      <c r="C5" s="6"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2,3)</v>
       </c>
-      <c r="B6" s="5" cm="1">
+      <c r="B6" s="3" cm="1">
         <f t="array" ref="B6">_xll.TBXLL_AddOptional(1,2,3)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="str">
+      <c r="C6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AlwaysDiv0()</v>
       </c>
-      <c r="B7" s="5" t="e" cm="1">
+      <c r="B7" s="3" t="e" cm="1">
         <f t="array" ref="B7">_xll.TBXLL_AlwaysDiv0()</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5" t="str">
+      <c r="C7" s="6"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B8)</f>
         <v>=TBXLL_Divide(10,0)</v>
       </c>
-      <c r="B8" s="5" t="e" cm="1">
+      <c r="B8" s="3" t="e" cm="1">
         <f t="array" ref="B8">_xll.TBXLL_Divide(10,0)</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5" t="str">
+      <c r="C8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B9)</f>
         <v>=TBXLL_FailAfterSum({1,2,3})</v>
       </c>
-      <c r="B9" s="5" t="e" cm="1">
+      <c r="B9" s="3" t="e" cm="1">
         <f t="array" ref="B9">_xll.TBXLL_FailAfterSum({1,2,3})</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5" t="str">
+      <c r="C9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B10)</f>
         <v>=TBXLL_NotFound()</v>
       </c>
-      <c r="B10" s="5" t="e" cm="1">
+      <c r="B10" s="3" t="e" cm="1">
         <f t="array" ref="B10">_xll.TBXLL_NotFound()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5" t="str">
+      <c r="C10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B11)</f>
         <v>=TBXLL_SqrtChecked(-1)</v>
       </c>
-      <c r="B11" s="5" t="e" cm="1">
+      <c r="B11" s="3" t="e" cm="1">
         <f t="array" ref="B11">_xll.TBXLL_SqrtChecked(-1)</f>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5" t="str">
+      <c r="C11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
         <v>=TBXLL_TextOnly(25)</v>
       </c>
-      <c r="B12" s="5" t="e" cm="1">
+      <c r="B12" s="3" t="e" cm="1">
         <f t="array" ref="B12">_xll.TBXLL_TextOnly(25)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5" t="str">
+      <c r="C12" s="6"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Average({1,2,3})</v>
       </c>
-      <c r="B13" s="5" cm="1">
+      <c r="B13" s="3" cm="1">
         <f t="array" ref="B13">_xll.TBXLL_Average({1,2,3})</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5" t="str">
+      <c r="C13" s="6"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_Average(C14:E14)</v>
-      </c>
-      <c r="B14" s="5" cm="1">
-        <f t="array" ref="B14">_xll.TBXLL_Average(C14:E14)</f>
+        <v>=TBXLL_ConditionalAdd(10,D14,"result")</v>
+      </c>
+      <c r="B14" s="3" t="str" cm="1">
+        <f t="array" ref="B14">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
+        <v>result: 20</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=TBXLL_ConditionalAdd(10,D15,"result")</v>
+      </c>
+      <c r="B15" s="3" t="str" cm="1">
+        <f t="array" ref="B15">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
+        <v>result: 10</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=TBXLL_CountIf(D16:F16,"&gt;=3")</v>
+      </c>
+      <c r="B16" s="3" cm="1">
+        <f t="array" ref="B16">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="C16" s="6"/>
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_ConditionalAdd(10,C15,"result")</v>
-      </c>
-      <c r="B15" s="5" t="str" cm="1">
-        <f t="array" ref="B15">_xll.TBXLL_ConditionalAdd(10,C15,"result")</f>
-        <v>result: 20</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_ConditionalAdd(10,C16,"result")</v>
-      </c>
-      <c r="B16" s="5" t="str" cm="1">
-        <f t="array" ref="B16">_xll.TBXLL_ConditionalAdd(10,C16,"result")</f>
-        <v>result: 10</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_CountIf(C17:E17,"&gt;=3")</v>
-      </c>
-      <c r="B17" s="5" cm="1">
-        <f t="array" ref="B17">_xll.TBXLL_CountIf(C17:E17,"&gt;=3")</f>
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="str">
+      <c r="A17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Now()</v>
       </c>
-      <c r="B18" s="6" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">_xll.TBXLL_Now()</f>
-        <v>46077.364858912035</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="str">
+      <c r="B17" s="4" cm="1">
+        <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
+        <v>46077.532184027776</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=NOW()</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46077.364858912035</v>
-      </c>
+        <v>46077.532184027776</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B19)</f>
+        <v>=TBXLL_SqrtChecked(9)</v>
+      </c>
+      <c r="B19" s="3" cm="1">
+        <f t="array" ref="B19">_xll.TBXLL_SqrtChecked(9)</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="str">
+      <c r="A20" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
-        <v>=TBXLL_SqrtChecked(9)</v>
-      </c>
-      <c r="B20" s="5" cm="1">
-        <f t="array" ref="B20">_xll.TBXLL_SqrtChecked(9)</f>
+        <v>=TBXLL_TextOnly("25")</v>
+      </c>
+      <c r="B20" s="3" t="str" cm="1">
+        <f t="array" ref="B20">_xll.TBXLL_TextOnly("25")</f>
+        <v>OK: 25</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(B21)</f>
+        <v>=TBXLL_Transpose({1;2;3})</v>
+      </c>
+      <c r="B21" s="3" cm="1">
+        <f t="array" ref="B21:D21">_xll.TBXLL_Transpose({1;2;3})</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B21)</f>
-        <v>=TBXLL_TextOnly("25")</v>
-      </c>
-      <c r="B21" s="5" t="str" cm="1">
-        <f t="array" ref="B21">_xll.TBXLL_TextOnly("25")</f>
-        <v>OK: 25</v>
-      </c>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B22)</f>
-        <v>=TBXLL_Transpose({1;2;3})</v>
-      </c>
-      <c r="B22" s="5" cm="1">
-        <f t="array" ref="B22:D22">_xll.TBXLL_Transpose({1;2;3})</f>
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
+      <c r="A22" s="3" t="str">
+        <f t="shared" ref="A22:A31" ca="1" si="1">_xlfn.FORMULATEXT(B22)</f>
+        <v>=TBXLL_Upper("mike")</v>
+      </c>
+      <c r="B22" s="3" t="str" cm="1">
+        <f t="array" ref="B22">_xll.TBXLL_Upper("mike")</f>
+        <v>MIKE</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5" t="str">
-        <f t="shared" ref="A23:A36" ca="1" si="1">_xlfn.FORMULATEXT(B23)</f>
-        <v>=TBXLL_Upper("mike")</v>
-      </c>
-      <c r="B23" s="5" t="str" cm="1">
-        <f t="array" ref="B23">_xll.TBXLL_Upper("mike")</f>
-        <v>MIKE</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5" t="str">
+      <c r="A23" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_RecalcCounter()</v>
       </c>
-      <c r="B24" s="5" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="str">
-        <f>"1"</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="str">
+      <c r="B23" s="3" cm="1">
+        <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray({1,2,3})</v>
       </c>
-      <c r="B25" s="5" cm="1">
-        <f t="array" ref="B25">_xll.TBXLL_SumArray({1,2,3})</f>
+      <c r="B24" s="3" cm="1">
+        <f t="array" ref="B24">_xll.TBXLL_SumArray({1,2,3})</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_SumArray(C26:E26)</v>
-      </c>
-      <c r="B26" s="5" cm="1">
-        <f t="array" ref="B26">_xll.TBXLL_SumArray(C26:E26)</f>
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="str">
+      <c r="C24" s="6"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray2({1,2,3})</v>
       </c>
-      <c r="B27" s="5" cm="1">
-        <f t="array" ref="B27">_xll.TBXLL_SumArray2({1,2,3})</f>
+      <c r="B25" s="3" cm="1">
+        <f t="array" ref="B25">_xll.TBXLL_SumArray2({1,2,3})</f>
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="C25" s="6"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=SUM(F23:F25)</v>
+      </c>
+      <c r="B26" s="3">
+        <f>SUM(F23:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TBXLL_Join(D27:F28,TRUE)</v>
+      </c>
+      <c r="B27" s="3" t="str" cm="1">
+        <f t="array" ref="B27">_xll.TBXLL_Join(D27:F28,TRUE)</f>
+        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
         <v>2</v>
       </c>
-      <c r="F27" t="str">
-        <f>"2"</f>
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TBXLL_Join(D27:F28,FALSE)</v>
+      </c>
+      <c r="B28" s="3" t="str" cm="1">
+        <f t="array" ref="B28">_xll.TBXLL_Join(D27:F28,FALSE)</f>
+        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_SumArray2(C26:E26)</v>
-      </c>
-      <c r="B28" s="5" cm="1">
-        <f t="array" ref="B28">_xll.TBXLL_SumArray2(C26:E26)</f>
-        <v>6</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="F28" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="G28">
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="H28">
+      <c r="F28" t="s">
         <v>5</v>
       </c>
-      <c r="I28">
-        <v>6</v>
-      </c>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_SumArray2(G27:I28)</v>
-      </c>
-      <c r="B29" s="5" cm="1">
-        <f t="array" ref="B29">_xll.TBXLL_SumArray2(G27:I28)</f>
-        <v>21</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="F29" t="str">
-        <f>"4"</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_SumArray2(F24:F29)</v>
-      </c>
-      <c r="B30" s="5" cm="1">
-        <f t="array" ref="B30">_xll.TBXLL_SumArray2(F24:F29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=SUM(F24:F29)</v>
-      </c>
-      <c r="B31" s="5">
-        <f>SUM(F24:F29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join(D32:F33,TRUE)</v>
-      </c>
-      <c r="B32" s="5" t="str" cm="1">
-        <f t="array" ref="B32">_xll.TBXLL_Join(D32:F33,TRUE)</f>
-        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join(D32:F33,FALSE)</v>
-      </c>
-      <c r="B33" s="5" t="str" cm="1">
-        <f t="array" ref="B33">_xll.TBXLL_Join(D32:F33,FALSE)</f>
-        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5" t="str">
+      <c r="A29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
       </c>
-      <c r="B34" s="5" t="str" cm="1">
-        <f t="array" ref="B34">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
+      <c r="B29" s="3" t="str" cm="1">
+        <f t="array" ref="B29">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
         <v>11,21,12,22,13,23</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5" t="str">
+      <c r="C29" s="6"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
       </c>
-      <c r="B35" s="5" t="str" cm="1">
-        <f t="array" ref="B35">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
+      <c r="B30" s="3" t="str" cm="1">
+        <f t="array" ref="B30">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
         <v>11,12,13,21,22,23</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="5" t="str">
+      <c r="C30" s="6"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23})</v>
       </c>
-      <c r="B36" s="5" t="str" cm="1">
-        <f t="array" ref="B36">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
+      <c r="B31" s="3" t="str" cm="1">
+        <f t="array" ref="B31">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
         <v>11,12,13,21,22,23</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="5" t="str">
-        <f t="shared" ref="A37:A44" ca="1" si="2">_xlfn.FORMULATEXT(B37)</f>
+      <c r="C31" s="6"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3" t="str">
+        <f t="shared" ref="A32:A39" ca="1" si="2">_xlfn.FORMULATEXT(B32)</f>
         <v>=TBXLL_CellValue(testNamedRange)</v>
       </c>
-      <c r="B37" s="5" t="b" cm="1">
-        <f t="array" ref="B37">_xll.TBXLL_CellValue(testNamedRange)</f>
+      <c r="B32" s="3" t="b" cm="1">
+        <f t="array" ref="B32">_xll.TBXLL_CellValue(testNamedRange)</f>
         <v>1</v>
       </c>
-      <c r="C37" t="b">
+      <c r="C32" s="6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5" t="str">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_CellValue(C38)</v>
-      </c>
-      <c r="B38" s="5" cm="1">
-        <f t="array" ref="B38">_xll.TBXLL_CellValue(C38)</f>
+        <v>=TBXLL_CellValue(C33)</v>
+      </c>
+      <c r="B33" s="3" cm="1">
+        <f t="array" ref="B33">_xll.TBXLL_CellValue(C33)</f>
         <v>99</v>
       </c>
-      <c r="C38">
+      <c r="C33" s="6">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5" t="str">
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_SheetName(Sheet2!A1:D7)</v>
-      </c>
-      <c r="B39" s="5" t="str" cm="1">
-        <f t="array" aca="1" ref="B39" ca="1">_xll.TBXLL_SheetName(Sheet2!A1:D7)</f>
-        <v>[tests.xlsx]Sheet2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="5" t="str">
+        <v>=TBXLL_SheetName(D34)</v>
+      </c>
+      <c r="B34" s="3" t="str" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">_xll.TBXLL_SheetName(D34)</f>
+        <v>[tests.xlsx]Sheet1</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_IsEmptyCell(C40)</v>
-      </c>
-      <c r="B40" s="5" t="b" cm="1">
-        <f t="array" ref="B40">_xll.TBXLL_IsEmptyCell(C40)</f>
+        <v>=TBXLL_IsEmptyCell(C35)</v>
+      </c>
+      <c r="B35" s="3" t="b" cm="1">
+        <f t="array" ref="B35">_xll.TBXLL_IsEmptyCell(C35)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="5" t="str">
+      <c r="C35" s="6"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_TestMissing(3.6)</v>
       </c>
-      <c r="B41" s="5" cm="1">
-        <f t="array" ref="B41">_xll.TBXLL_TestMissing(3.6)</f>
+      <c r="B36" s="3" cm="1">
+        <f t="array" ref="B36">_xll.TBXLL_TestMissing(3.6)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5" t="str">
+      <c r="C36" s="6"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D42:D44,E42:E44)}</v>
-      </c>
-      <c r="B42" s="5">
-        <f t="array" ref="B42:B44">_xll.TBXLL_MultiplyArrays(D42:D44,E42:E44)</f>
+        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
+      </c>
+      <c r="B37" s="3">
+        <f t="array" ref="B37:B39">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
         <v>2</v>
       </c>
-      <c r="D42">
+      <c r="C37" s="6"/>
+      <c r="D37">
         <v>1</v>
       </c>
-      <c r="E42">
+      <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="5" t="str">
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D42:D44,E42:E44)}</v>
-      </c>
-      <c r="B43" s="5">
+        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
+      </c>
+      <c r="B38" s="3">
         <v>20</v>
       </c>
-      <c r="D43">
+      <c r="C38" s="6"/>
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="E43">
+      <c r="E38">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="5" t="str">
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D42:D44,E42:E44)}</v>
-      </c>
-      <c r="B44" s="5">
+        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
+      </c>
+      <c r="B39" s="3">
         <v>4</v>
       </c>
-      <c r="D44">
+      <c r="C39" s="6"/>
+      <c r="D39">
         <v>2</v>
       </c>
-      <c r="E44">
+      <c r="E39">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="5" t="str">
-        <f t="shared" ref="A45:A50" ca="1" si="3">_xlfn.FORMULATEXT(B45)</f>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3" t="str">
+        <f t="shared" ref="A40:A45" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
         <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
       </c>
-      <c r="B45" s="7">
-        <f t="array" ref="B45:E45">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+      <c r="B40" s="5">
+        <f t="array" ref="B40:E40">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C40" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D40" s="10">
         <v>0.29629629629629628</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E40" s="10">
         <v>0.46296296296296297</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="5" t="str">
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcSafe(100)</v>
       </c>
-      <c r="B46" s="5" cm="1">
-        <f t="array" ref="B46">_xll.TBXLL_SlowCalcSafe(100)</f>
+      <c r="B41" s="3" cm="1">
+        <f t="array" ref="B41">_xll.TBXLL_SlowCalcSafe(100)</f>
         <v>66666716645.884483</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="5" t="str">
+      <c r="C41" s="6"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcUnsafe(100)</v>
       </c>
-      <c r="B47" s="5" cm="1">
-        <f t="array" ref="B47">_xll.TBXLL_SlowCalcUnsafe(100)</f>
+      <c r="B42" s="3" cm="1">
+        <f t="array" ref="B42">_xll.TBXLL_SlowCalcUnsafe(100)</f>
         <v>66666716645.884483</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="5" t="str">
+      <c r="C42" s="6"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_NumberName(9)</v>
       </c>
-      <c r="B48" s="5" t="str" cm="1">
-        <f t="array" ref="B48">_xll.TBXLL_NumberName(9)</f>
+      <c r="B43" s="3" t="str" cm="1">
+        <f t="array" ref="B43">_xll.TBXLL_NumberName(9)</f>
         <v>Nine</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="5" t="str">
+      <c r="C43" s="6"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_RomanNumeral(9)</v>
       </c>
-      <c r="B49" s="5" t="str" cm="1">
-        <f t="array" ref="B49">_xll.TBXLL_RomanNumeral(9)</f>
+      <c r="B44" s="3" t="str" cm="1">
+        <f t="array" ref="B44">_xll.TBXLL_RomanNumeral(9)</f>
         <v>IX</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="5" t="str">
+      <c r="C44" s="6"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_CellAddress(C50)</v>
-      </c>
-      <c r="B50" s="5" t="str" cm="1">
-        <f t="array" ref="B50">_xll.TBXLL_CellAddress(C50)</f>
-        <v>$B$49</v>
-      </c>
+        <v>=TBXLL_CellAddress(C45)</v>
+      </c>
+      <c r="B45" s="3" t="str" cm="1">
+        <f t="array" ref="B45">_xll.TBXLL_CellAddress(C45)</f>
+        <v>$B$44</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0490B4F-73CF-40AA-A410-9F05D920C8B1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8019EDD-C199-4062-B080-41D7EFB96B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E89768-B65F-4DEE-BE44-4582D2C31C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="636" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,11 +547,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46077.532184027776</v>
+        <v>46077.625882986111</v>
       </c>
       <c r="C17" s="8"/>
       <c r="H17" s="7"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46077.532184027776</v>
+        <v>46077.625882986111</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -865,7 +865,7 @@
       </c>
       <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
-        <f t="shared" ref="A40:A45" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
+        <f t="shared" ref="A40:A46" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
         <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
       </c>
       <c r="B40" s="5">
@@ -1170,11 +1170,11 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_CellAddress(C45)</v>
+        <f t="shared" ref="A45" ca="1" si="4">_xlfn.FORMULATEXT(B45)</f>
+        <v>=TBXLL_CellAddress_Hidden(C45)</v>
       </c>
       <c r="B45" s="3" t="str" cm="1">
-        <f t="array" ref="B45">_xll.TBXLL_CellAddress(C45)</f>
+        <f t="array" ref="B45">_xll.TBXLL_CellAddress_Hidden(C45)</f>
         <v>$B$44</v>
       </c>
       <c r="C45" s="11"/>
@@ -1183,6 +1183,22 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="13"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_CellAddress(C46)</v>
+      </c>
+      <c r="B46" s="3" t="str" cm="1">
+        <f t="array" ref="B46">_xll.TBXLL_CellAddress(C46)</f>
+        <v>$B$45</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E89768-B65F-4DEE-BE44-4582D2C31C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E626555-9BF4-477D-898A-592AA15900A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,8 +550,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -626,9 +626,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2)</v>
       </c>
-      <c r="B5" s="3" cm="1">
-        <f t="array" ref="B5">_xll.TBXLL_AddOptional(1,2)</f>
-        <v>3</v>
+      <c r="B5" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">_xll.TBXLL_AddOptional(1,2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C5" s="6"/>
       <c r="H5" s="7"/>
@@ -638,9 +638,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2,3)</v>
       </c>
-      <c r="B6" s="3" cm="1">
-        <f t="array" ref="B6">_xll.TBXLL_AddOptional(1,2,3)</f>
-        <v>6</v>
+      <c r="B6" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">_xll.TBXLL_AddOptional(1,2,3)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C6" s="6"/>
       <c r="H6" s="7"/>
@@ -651,8 +651,8 @@
         <v>=TBXLL_AlwaysDiv0()</v>
       </c>
       <c r="B7" s="3" t="e" cm="1">
-        <f t="array" ref="B7">_xll.TBXLL_AlwaysDiv0()</f>
-        <v>#DIV/0!</v>
+        <f t="array" aca="1" ref="B7" ca="1">_xll.TBXLL_AlwaysDiv0()</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C7" s="6"/>
       <c r="H7" s="7"/>
@@ -663,8 +663,8 @@
         <v>=TBXLL_Divide(10,0)</v>
       </c>
       <c r="B8" s="3" t="e" cm="1">
-        <f t="array" ref="B8">_xll.TBXLL_Divide(10,0)</f>
-        <v>#DIV/0!</v>
+        <f t="array" aca="1" ref="B8" ca="1">_xll.TBXLL_Divide(10,0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C8" s="6"/>
       <c r="H8" s="7"/>
@@ -675,7 +675,7 @@
         <v>=TBXLL_FailAfterSum({1,2,3})</v>
       </c>
       <c r="B9" s="3" t="e" cm="1">
-        <f t="array" ref="B9">_xll.TBXLL_FailAfterSum({1,2,3})</f>
+        <f t="array" aca="1" ref="B9" ca="1">_xll.TBXLL_FailAfterSum({1,2,3})</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="6"/>
@@ -687,8 +687,8 @@
         <v>=TBXLL_NotFound()</v>
       </c>
       <c r="B10" s="3" t="e" cm="1">
-        <f t="array" ref="B10">_xll.TBXLL_NotFound()</f>
-        <v>#N/A</v>
+        <f t="array" aca="1" ref="B10" ca="1">_xll.TBXLL_NotFound()</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C10" s="6"/>
       <c r="H10" s="7"/>
@@ -699,8 +699,8 @@
         <v>=TBXLL_SqrtChecked(-1)</v>
       </c>
       <c r="B11" s="3" t="e" cm="1">
-        <f t="array" ref="B11">_xll.TBXLL_SqrtChecked(-1)</f>
-        <v>#NUM!</v>
+        <f t="array" aca="1" ref="B11" ca="1">_xll.TBXLL_SqrtChecked(-1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C11" s="6"/>
       <c r="H11" s="7"/>
@@ -711,7 +711,7 @@
         <v>=TBXLL_TextOnly(25)</v>
       </c>
       <c r="B12" s="3" t="e" cm="1">
-        <f t="array" ref="B12">_xll.TBXLL_TextOnly(25)</f>
+        <f t="array" aca="1" ref="B12" ca="1">_xll.TBXLL_TextOnly(25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C12" s="6"/>
@@ -722,9 +722,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Average({1,2,3})</v>
       </c>
-      <c r="B13" s="3" cm="1">
-        <f t="array" ref="B13">_xll.TBXLL_Average({1,2,3})</f>
-        <v>2</v>
+      <c r="B13" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">_xll.TBXLL_Average({1,2,3})</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" s="6"/>
       <c r="H13" s="7"/>
@@ -734,9 +734,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,D14,"result")</v>
       </c>
-      <c r="B14" s="3" t="str" cm="1">
-        <f t="array" ref="B14">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
-        <v>result: 20</v>
+      <c r="B14" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" t="b">
@@ -749,9 +749,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,D15,"result")</v>
       </c>
-      <c r="B15" s="3" t="str" cm="1">
-        <f t="array" ref="B15">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
-        <v>result: 10</v>
+      <c r="B15" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" t="b">
@@ -764,9 +764,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_CountIf(D16:F16,"&gt;=3")</v>
       </c>
-      <c r="B16" s="3" cm="1">
-        <f t="array" ref="B16">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
-        <v>2</v>
+      <c r="B16" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16">
@@ -785,9 +785,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Now()</v>
       </c>
-      <c r="B17" s="4" cm="1">
+      <c r="B17" s="4" t="e" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46077.625882986111</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C17" s="8"/>
       <c r="H17" s="7"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46077.625882986111</v>
+        <v>46077.685631250002</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -810,9 +810,9 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=TBXLL_SqrtChecked(9)</v>
       </c>
-      <c r="B19" s="3" cm="1">
-        <f t="array" ref="B19">_xll.TBXLL_SqrtChecked(9)</f>
-        <v>3</v>
+      <c r="B19" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">_xll.TBXLL_SqrtChecked(9)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C19" s="6"/>
       <c r="H19" s="7"/>
@@ -822,9 +822,9 @@
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=TBXLL_TextOnly("25")</v>
       </c>
-      <c r="B20" s="3" t="str" cm="1">
-        <f t="array" ref="B20">_xll.TBXLL_TextOnly("25")</f>
-        <v>OK: 25</v>
+      <c r="B20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">_xll.TBXLL_TextOnly("25")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C20" s="6"/>
       <c r="H20" s="7"/>
@@ -834,16 +834,11 @@
         <f ca="1">_xlfn.FORMULATEXT(B21)</f>
         <v>=TBXLL_Transpose({1;2;3})</v>
       </c>
-      <c r="B21" s="3" cm="1">
-        <f t="array" ref="B21:D21">_xll.TBXLL_Transpose({1;2;3})</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
+      <c r="B21" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">_xll.TBXLL_Transpose({1;2;3})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" s="6"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -851,9 +846,9 @@
         <f t="shared" ref="A22:A31" ca="1" si="1">_xlfn.FORMULATEXT(B22)</f>
         <v>=TBXLL_Upper("mike")</v>
       </c>
-      <c r="B22" s="3" t="str" cm="1">
-        <f t="array" ref="B22">_xll.TBXLL_Upper("mike")</f>
-        <v>MIKE</v>
+      <c r="B22" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B22" ca="1">_xll.TBXLL_Upper("mike")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C22" s="6"/>
       <c r="H22" s="7"/>
@@ -863,9 +858,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_RecalcCounter()</v>
       </c>
-      <c r="B23" s="3" cm="1">
+      <c r="B23" s="3" t="e" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -875,9 +870,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray({1,2,3})</v>
       </c>
-      <c r="B24" s="3" cm="1">
-        <f t="array" ref="B24">_xll.TBXLL_SumArray({1,2,3})</f>
-        <v>6</v>
+      <c r="B24" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_SumArray({1,2,3})</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C24" s="6"/>
       <c r="H24" s="7"/>
@@ -887,9 +882,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray2({1,2,3})</v>
       </c>
-      <c r="B25" s="3" cm="1">
-        <f t="array" ref="B25">_xll.TBXLL_SumArray2({1,2,3})</f>
-        <v>6</v>
+      <c r="B25" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">_xll.TBXLL_SumArray2({1,2,3})</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C25" s="6"/>
       <c r="H25" s="7"/>
@@ -911,9 +906,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join(D27:F28,TRUE)</v>
       </c>
-      <c r="B27" s="3" t="str" cm="1">
-        <f t="array" ref="B27">_xll.TBXLL_Join(D27:F28,TRUE)</f>
-        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
+      <c r="B27" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">_xll.TBXLL_Join(D27:F28,TRUE)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" t="s">
@@ -932,9 +927,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join(D27:F28,FALSE)</v>
       </c>
-      <c r="B28" s="3" t="str" cm="1">
-        <f t="array" ref="B28">_xll.TBXLL_Join(D27:F28,FALSE)</f>
-        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
+      <c r="B28" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">_xll.TBXLL_Join(D27:F28,FALSE)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" t="s">
@@ -953,9 +948,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
       </c>
-      <c r="B29" s="3" t="str" cm="1">
-        <f t="array" ref="B29">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
-        <v>11,21,12,22,13,23</v>
+      <c r="B29" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C29" s="6"/>
       <c r="H29" s="7"/>
@@ -965,9 +960,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
       </c>
-      <c r="B30" s="3" t="str" cm="1">
-        <f t="array" ref="B30">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
-        <v>11,12,13,21,22,23</v>
+      <c r="B30" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C30" s="6"/>
       <c r="H30" s="7"/>
@@ -977,9 +972,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23})</v>
       </c>
-      <c r="B31" s="3" t="str" cm="1">
-        <f t="array" ref="B31">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
-        <v>11,12,13,21,22,23</v>
+      <c r="B31" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B31" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C31" s="6"/>
       <c r="H31" s="7"/>
@@ -989,9 +984,9 @@
         <f t="shared" ref="A32:A39" ca="1" si="2">_xlfn.FORMULATEXT(B32)</f>
         <v>=TBXLL_CellValue(testNamedRange)</v>
       </c>
-      <c r="B32" s="3" t="b" cm="1">
-        <f t="array" ref="B32">_xll.TBXLL_CellValue(testNamedRange)</f>
-        <v>1</v>
+      <c r="B32" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">_xll.TBXLL_CellValue(testNamedRange)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C32" s="6" t="b">
         <v>1</v>
@@ -1003,9 +998,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_CellValue(C33)</v>
       </c>
-      <c r="B33" s="3" cm="1">
-        <f t="array" ref="B33">_xll.TBXLL_CellValue(C33)</f>
-        <v>99</v>
+      <c r="B33" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">_xll.TBXLL_CellValue(C33)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C33" s="6">
         <v>99</v>
@@ -1017,9 +1012,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_SheetName(D34)</v>
       </c>
-      <c r="B34" s="3" t="str" cm="1">
+      <c r="B34" s="3" t="e" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">_xll.TBXLL_SheetName(D34)</f>
-        <v>[tests.xlsx]Sheet1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C34" s="6"/>
       <c r="H34" s="7"/>
@@ -1029,9 +1024,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_IsEmptyCell(C35)</v>
       </c>
-      <c r="B35" s="3" t="b" cm="1">
-        <f t="array" ref="B35">_xll.TBXLL_IsEmptyCell(C35)</f>
-        <v>1</v>
+      <c r="B35" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">_xll.TBXLL_IsEmptyCell(C35)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C35" s="6"/>
       <c r="H35" s="7"/>
@@ -1041,9 +1036,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_TestMissing(3.6)</v>
       </c>
-      <c r="B36" s="3" cm="1">
-        <f t="array" ref="B36">_xll.TBXLL_TestMissing(3.6)</f>
-        <v>4</v>
+      <c r="B36" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">_xll.TBXLL_TestMissing(3.6)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C36" s="6"/>
       <c r="H36" s="7"/>
@@ -1053,9 +1048,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
-      <c r="B37" s="3">
-        <f t="array" ref="B37:B39">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
-        <v>2</v>
+      <c r="B37" s="3" t="e">
+        <f t="array" aca="1" ref="B37:B39" ca="1">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37">
@@ -1071,8 +1066,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
-      <c r="B38" s="3">
-        <v>20</v>
+      <c r="B38" s="3" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38">
@@ -1088,8 +1084,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
-      <c r="B39" s="3">
-        <v>4</v>
+      <c r="B39" s="3" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39">
@@ -1105,18 +1102,21 @@
         <f t="shared" ref="A40:A46" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
         <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
       </c>
-      <c r="B40" s="5">
-        <f t="array" ref="B40:E40">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="C40" s="9">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.46296296296296297</v>
+      <c r="B40" s="5" t="e">
+        <f t="array" aca="1" ref="B40:E40" ca="1">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="9" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" s="10" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" s="10" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1125,9 +1125,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcSafe(100)</v>
       </c>
-      <c r="B41" s="3" cm="1">
-        <f t="array" ref="B41">_xll.TBXLL_SlowCalcSafe(100)</f>
-        <v>66666716645.884483</v>
+      <c r="B41" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">_xll.TBXLL_SlowCalcSafe(100)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C41" s="6"/>
       <c r="H41" s="7"/>
@@ -1137,9 +1137,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcUnsafe(100)</v>
       </c>
-      <c r="B42" s="3" cm="1">
-        <f t="array" ref="B42">_xll.TBXLL_SlowCalcUnsafe(100)</f>
-        <v>66666716645.884483</v>
+      <c r="B42" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">_xll.TBXLL_SlowCalcUnsafe(100)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C42" s="6"/>
       <c r="H42" s="7"/>
@@ -1149,9 +1149,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_NumberName(9)</v>
       </c>
-      <c r="B43" s="3" t="str" cm="1">
-        <f t="array" ref="B43">_xll.TBXLL_NumberName(9)</f>
-        <v>Nine</v>
+      <c r="B43" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">_xll.TBXLL_NumberName(9)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C43" s="6"/>
       <c r="H43" s="7"/>
@@ -1161,9 +1161,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_RomanNumeral(9)</v>
       </c>
-      <c r="B44" s="3" t="str" cm="1">
-        <f t="array" ref="B44">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>IX</v>
+      <c r="B44" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C44" s="6"/>
       <c r="H44" s="7"/>
@@ -1189,9 +1189,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_CellAddress(C46)</v>
       </c>
-      <c r="B46" s="3" t="str" cm="1">
-        <f t="array" ref="B46">_xll.TBXLL_CellAddress(C46)</f>
-        <v>$B$45</v>
+      <c r="B46" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_CellAddress(C46)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E626555-9BF4-477D-898A-592AA15900A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F8210-A366-4650-B8A0-112DF3E9FD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2928" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,8 +550,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46077.685631250002</v>
+        <v>46077.694039004629</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88F8210-A366-4650-B8A0-112DF3E9FD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E02D77-71BB-4BD2-B121-D73F019651AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2928" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,21 +115,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -168,17 +162,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -251,21 +234,21 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,8 +533,8 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -570,14 +553,14 @@
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="str">
@@ -626,9 +609,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2)</v>
       </c>
-      <c r="B5" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">_xll.TBXLL_AddOptional(1,2)</f>
-        <v>#VALUE!</v>
+      <c r="B5" s="3" cm="1">
+        <f t="array" ref="B5">_xll.TBXLL_AddOptional(1,2)</f>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="H5" s="7"/>
@@ -638,9 +621,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2,3)</v>
       </c>
-      <c r="B6" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">_xll.TBXLL_AddOptional(1,2,3)</f>
-        <v>#VALUE!</v>
+      <c r="B6" s="3" cm="1">
+        <f t="array" ref="B6">_xll.TBXLL_AddOptional(1,2,3)</f>
+        <v>6</v>
       </c>
       <c r="C6" s="6"/>
       <c r="H6" s="7"/>
@@ -651,8 +634,8 @@
         <v>=TBXLL_AlwaysDiv0()</v>
       </c>
       <c r="B7" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">_xll.TBXLL_AlwaysDiv0()</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B7">_xll.TBXLL_AlwaysDiv0()</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C7" s="6"/>
       <c r="H7" s="7"/>
@@ -663,8 +646,8 @@
         <v>=TBXLL_Divide(10,0)</v>
       </c>
       <c r="B8" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">_xll.TBXLL_Divide(10,0)</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B8">_xll.TBXLL_Divide(10,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C8" s="6"/>
       <c r="H8" s="7"/>
@@ -675,7 +658,7 @@
         <v>=TBXLL_FailAfterSum({1,2,3})</v>
       </c>
       <c r="B9" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">_xll.TBXLL_FailAfterSum({1,2,3})</f>
+        <f t="array" ref="B9">_xll.TBXLL_FailAfterSum({1,2,3})</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="6"/>
@@ -687,8 +670,8 @@
         <v>=TBXLL_NotFound()</v>
       </c>
       <c r="B10" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">_xll.TBXLL_NotFound()</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B10">_xll.TBXLL_NotFound()</f>
+        <v>#N/A</v>
       </c>
       <c r="C10" s="6"/>
       <c r="H10" s="7"/>
@@ -699,8 +682,8 @@
         <v>=TBXLL_SqrtChecked(-1)</v>
       </c>
       <c r="B11" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">_xll.TBXLL_SqrtChecked(-1)</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B11">_xll.TBXLL_SqrtChecked(-1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="C11" s="6"/>
       <c r="H11" s="7"/>
@@ -711,7 +694,7 @@
         <v>=TBXLL_TextOnly(25)</v>
       </c>
       <c r="B12" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">_xll.TBXLL_TextOnly(25)</f>
+        <f t="array" ref="B12">_xll.TBXLL_TextOnly(25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C12" s="6"/>
@@ -722,9 +705,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Average({1,2,3})</v>
       </c>
-      <c r="B13" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">_xll.TBXLL_Average({1,2,3})</f>
-        <v>#VALUE!</v>
+      <c r="B13" s="3" cm="1">
+        <f t="array" ref="B13">_xll.TBXLL_Average({1,2,3})</f>
+        <v>2</v>
       </c>
       <c r="C13" s="6"/>
       <c r="H13" s="7"/>
@@ -734,9 +717,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,D14,"result")</v>
       </c>
-      <c r="B14" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
-        <v>#VALUE!</v>
+      <c r="B14" s="3" t="str" cm="1">
+        <f t="array" ref="B14">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
+        <v>result: 20</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" t="b">
@@ -749,9 +732,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,D15,"result")</v>
       </c>
-      <c r="B15" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
-        <v>#VALUE!</v>
+      <c r="B15" s="3" t="str" cm="1">
+        <f t="array" ref="B15">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
+        <v>result: 10</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" t="b">
@@ -764,9 +747,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_CountIf(D16:F16,"&gt;=3")</v>
       </c>
-      <c r="B16" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
-        <v>#VALUE!</v>
+      <c r="B16" s="3" cm="1">
+        <f t="array" ref="B16">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
+        <v>2</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16">
@@ -785,11 +768,11 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Now()</v>
       </c>
-      <c r="B17" s="4" t="e" cm="1">
+      <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>46077.697184837962</v>
+      </c>
+      <c r="C17" s="15"/>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
     </row>
@@ -800,7 +783,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46077.694039004629</v>
+        <v>46077.697184837962</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -810,9 +793,9 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=TBXLL_SqrtChecked(9)</v>
       </c>
-      <c r="B19" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">_xll.TBXLL_SqrtChecked(9)</f>
-        <v>#VALUE!</v>
+      <c r="B19" s="3" cm="1">
+        <f t="array" ref="B19">_xll.TBXLL_SqrtChecked(9)</f>
+        <v>3</v>
       </c>
       <c r="C19" s="6"/>
       <c r="H19" s="7"/>
@@ -822,9 +805,9 @@
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=TBXLL_TextOnly("25")</v>
       </c>
-      <c r="B20" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B20" ca="1">_xll.TBXLL_TextOnly("25")</f>
-        <v>#VALUE!</v>
+      <c r="B20" s="3" t="str" cm="1">
+        <f t="array" ref="B20">_xll.TBXLL_TextOnly("25")</f>
+        <v>OK: 25</v>
       </c>
       <c r="C20" s="6"/>
       <c r="H20" s="7"/>
@@ -834,11 +817,16 @@
         <f ca="1">_xlfn.FORMULATEXT(B21)</f>
         <v>=TBXLL_Transpose({1;2;3})</v>
       </c>
-      <c r="B21" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">_xll.TBXLL_Transpose({1;2;3})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" s="6"/>
+      <c r="B21" s="3" cm="1">
+        <f t="array" ref="B21:D21">_xll.TBXLL_Transpose({1;2;3})</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -846,9 +834,9 @@
         <f t="shared" ref="A22:A31" ca="1" si="1">_xlfn.FORMULATEXT(B22)</f>
         <v>=TBXLL_Upper("mike")</v>
       </c>
-      <c r="B22" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B22" ca="1">_xll.TBXLL_Upper("mike")</f>
-        <v>#VALUE!</v>
+      <c r="B22" s="3" t="str" cm="1">
+        <f t="array" ref="B22">_xll.TBXLL_Upper("mike")</f>
+        <v>MIKE</v>
       </c>
       <c r="C22" s="6"/>
       <c r="H22" s="7"/>
@@ -858,9 +846,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_RecalcCounter()</v>
       </c>
-      <c r="B23" s="3" t="e" cm="1">
+      <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -870,9 +858,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray({1,2,3})</v>
       </c>
-      <c r="B24" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_SumArray({1,2,3})</f>
-        <v>#VALUE!</v>
+      <c r="B24" s="3" cm="1">
+        <f t="array" ref="B24">_xll.TBXLL_SumArray({1,2,3})</f>
+        <v>6</v>
       </c>
       <c r="C24" s="6"/>
       <c r="H24" s="7"/>
@@ -882,9 +870,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray2({1,2,3})</v>
       </c>
-      <c r="B25" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B25" ca="1">_xll.TBXLL_SumArray2({1,2,3})</f>
-        <v>#VALUE!</v>
+      <c r="B25" s="3" cm="1">
+        <f t="array" ref="B25">_xll.TBXLL_SumArray2({1,2,3})</f>
+        <v>6</v>
       </c>
       <c r="C25" s="6"/>
       <c r="H25" s="7"/>
@@ -906,9 +894,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join(D27:F28,TRUE)</v>
       </c>
-      <c r="B27" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B27" ca="1">_xll.TBXLL_Join(D27:F28,TRUE)</f>
-        <v>#VALUE!</v>
+      <c r="B27" s="3" t="str" cm="1">
+        <f t="array" ref="B27">_xll.TBXLL_Join(D27:F28,TRUE)</f>
+        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" t="s">
@@ -927,9 +915,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join(D27:F28,FALSE)</v>
       </c>
-      <c r="B28" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B28" ca="1">_xll.TBXLL_Join(D27:F28,FALSE)</f>
-        <v>#VALUE!</v>
+      <c r="B28" s="3" t="str" cm="1">
+        <f t="array" ref="B28">_xll.TBXLL_Join(D27:F28,FALSE)</f>
+        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" t="s">
@@ -948,9 +936,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
       </c>
-      <c r="B29" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B29" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
-        <v>#VALUE!</v>
+      <c r="B29" s="3" t="str" cm="1">
+        <f t="array" ref="B29">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
+        <v>11,21,12,22,13,23</v>
       </c>
       <c r="C29" s="6"/>
       <c r="H29" s="7"/>
@@ -960,9 +948,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
       </c>
-      <c r="B30" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B30" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
-        <v>#VALUE!</v>
+      <c r="B30" s="3" t="str" cm="1">
+        <f t="array" ref="B30">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
+        <v>11,12,13,21,22,23</v>
       </c>
       <c r="C30" s="6"/>
       <c r="H30" s="7"/>
@@ -972,9 +960,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23})</v>
       </c>
-      <c r="B31" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B31" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
-        <v>#VALUE!</v>
+      <c r="B31" s="3" t="str" cm="1">
+        <f t="array" ref="B31">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
+        <v>11,12,13,21,22,23</v>
       </c>
       <c r="C31" s="6"/>
       <c r="H31" s="7"/>
@@ -984,9 +972,9 @@
         <f t="shared" ref="A32:A39" ca="1" si="2">_xlfn.FORMULATEXT(B32)</f>
         <v>=TBXLL_CellValue(testNamedRange)</v>
       </c>
-      <c r="B32" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B32" ca="1">_xll.TBXLL_CellValue(testNamedRange)</f>
-        <v>#VALUE!</v>
+      <c r="B32" s="3" t="b" cm="1">
+        <f t="array" ref="B32">_xll.TBXLL_CellValue(testNamedRange)</f>
+        <v>1</v>
       </c>
       <c r="C32" s="6" t="b">
         <v>1</v>
@@ -998,9 +986,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_CellValue(C33)</v>
       </c>
-      <c r="B33" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B33" ca="1">_xll.TBXLL_CellValue(C33)</f>
-        <v>#VALUE!</v>
+      <c r="B33" s="3" cm="1">
+        <f t="array" ref="B33">_xll.TBXLL_CellValue(C33)</f>
+        <v>99</v>
       </c>
       <c r="C33" s="6">
         <v>99</v>
@@ -1012,9 +1000,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_SheetName(D34)</v>
       </c>
-      <c r="B34" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B34" ca="1">_xll.TBXLL_SheetName(D34)</f>
-        <v>#VALUE!</v>
+      <c r="B34" s="3" t="str" cm="1">
+        <f t="array" ref="B34">_xll.TBXLL_SheetName(D34)</f>
+        <v>[tests.xlsx]Sheet1</v>
       </c>
       <c r="C34" s="6"/>
       <c r="H34" s="7"/>
@@ -1024,9 +1012,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_IsEmptyCell(C35)</v>
       </c>
-      <c r="B35" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B35" ca="1">_xll.TBXLL_IsEmptyCell(C35)</f>
-        <v>#VALUE!</v>
+      <c r="B35" s="3" t="b" cm="1">
+        <f t="array" ref="B35">_xll.TBXLL_IsEmptyCell(C35)</f>
+        <v>1</v>
       </c>
       <c r="C35" s="6"/>
       <c r="H35" s="7"/>
@@ -1036,9 +1024,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_TestMissing(3.6)</v>
       </c>
-      <c r="B36" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B36" ca="1">_xll.TBXLL_TestMissing(3.6)</f>
-        <v>#VALUE!</v>
+      <c r="B36" s="3" cm="1">
+        <f t="array" ref="B36">_xll.TBXLL_TestMissing(3.6)</f>
+        <v>4</v>
       </c>
       <c r="C36" s="6"/>
       <c r="H36" s="7"/>
@@ -1048,9 +1036,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
-      <c r="B37" s="3" t="e">
-        <f t="array" aca="1" ref="B37:B39" ca="1">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
-        <v>#VALUE!</v>
+      <c r="B37" s="3">
+        <f t="array" ref="B37:B39">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
+        <v>2</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37">
@@ -1066,9 +1054,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
-      <c r="B38" s="3" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B38" s="3">
+        <v>20</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38">
@@ -1084,9 +1071,8 @@
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
-      <c r="B39" s="3" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B39" s="3">
+        <v>4</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39">
@@ -1102,21 +1088,18 @@
         <f t="shared" ref="A40:A46" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
         <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
       </c>
-      <c r="B40" s="5" t="e">
-        <f t="array" aca="1" ref="B40:E40" ca="1">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" s="9" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" s="10" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="B40" s="5">
+        <f t="array" ref="B40:E40">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.46296296296296297</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1125,9 +1108,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcSafe(100)</v>
       </c>
-      <c r="B41" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B41" ca="1">_xll.TBXLL_SlowCalcSafe(100)</f>
-        <v>#VALUE!</v>
+      <c r="B41" s="3" cm="1">
+        <f t="array" ref="B41">_xll.TBXLL_SlowCalcSafe(100)</f>
+        <v>66666716645.884483</v>
       </c>
       <c r="C41" s="6"/>
       <c r="H41" s="7"/>
@@ -1137,9 +1120,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcUnsafe(100)</v>
       </c>
-      <c r="B42" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B42" ca="1">_xll.TBXLL_SlowCalcUnsafe(100)</f>
-        <v>#VALUE!</v>
+      <c r="B42" s="3" cm="1">
+        <f t="array" ref="B42">_xll.TBXLL_SlowCalcUnsafe(100)</f>
+        <v>66666716645.884483</v>
       </c>
       <c r="C42" s="6"/>
       <c r="H42" s="7"/>
@@ -1149,9 +1132,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_NumberName(9)</v>
       </c>
-      <c r="B43" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B43" ca="1">_xll.TBXLL_NumberName(9)</f>
-        <v>#VALUE!</v>
+      <c r="B43" s="3" t="str" cm="1">
+        <f t="array" ref="B43">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
       </c>
       <c r="C43" s="6"/>
       <c r="H43" s="7"/>
@@ -1161,11 +1144,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_RomanNumeral(9)</v>
       </c>
-      <c r="B44" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B44" ca="1">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C44" s="6"/>
+      <c r="B44" s="3" t="str" cm="1">
+        <f t="array" ref="B44">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
+      </c>
+      <c r="C44" s="16"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1177,28 +1160,28 @@
         <f t="array" ref="B45">_xll.TBXLL_CellAddress_Hidden(C45)</f>
         <v>$B$44</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_CellAddress(C46)</v>
       </c>
-      <c r="B46" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_CellAddress(C46)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
+      <c r="B46" s="3" t="str" cm="1">
+        <f t="array" ref="B46">_xll.TBXLL_CellAddress(C46)</f>
+        <v>$B$45</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E02D77-71BB-4BD2-B121-D73F019651AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9631DF2-D0CB-4870-AC89-D07B13C479CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2928" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -238,6 +238,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,8 +248,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,11 +529,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -553,14 +552,14 @@
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="str">
@@ -770,9 +769,9 @@
       </c>
       <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46077.697184837962</v>
-      </c>
-      <c r="C17" s="15"/>
+        <v>46077.716632407406</v>
+      </c>
+      <c r="C17" s="12"/>
       <c r="H17" s="7"/>
       <c r="I17" s="1"/>
     </row>
@@ -783,7 +782,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46077.697184837962</v>
+        <v>46077.716631481482</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -848,7 +847,7 @@
       </c>
       <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -892,9 +891,9 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join(D27:F28,TRUE)</v>
-      </c>
-      <c r="B27" s="3" t="str" cm="1">
+        <v>{=TBXLL_Join(D27:F28,TRUE)}</v>
+      </c>
+      <c r="B27" s="3" t="str">
         <f t="array" ref="B27">_xll.TBXLL_Join(D27:F28,TRUE)</f>
         <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
       </c>
@@ -1085,7 +1084,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
-        <f t="shared" ref="A40:A46" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
+        <f t="shared" ref="A40:A45" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
         <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
       </c>
       <c r="B40" s="5">
@@ -1148,40 +1147,23 @@
         <f t="array" ref="B44">_xll.TBXLL_RomanNumeral(9)</f>
         <v>IX</v>
       </c>
-      <c r="C44" s="16"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
-        <f t="shared" ref="A45" ca="1" si="4">_xlfn.FORMULATEXT(B45)</f>
-        <v>=TBXLL_CellAddress_Hidden(C45)</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_CellAddress(C45)</v>
       </c>
       <c r="B45" s="3" t="str" cm="1">
-        <f t="array" ref="B45">_xll.TBXLL_CellAddress_Hidden(C45)</f>
+        <f t="array" ref="B45">_xll.TBXLL_CellAddress(C45)</f>
         <v>$B$44</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_CellAddress(C46)</v>
-      </c>
-      <c r="B46" s="3" t="str" cm="1">
-        <f t="array" ref="B46">_xll.TBXLL_CellAddress(C46)</f>
-        <v>$B$45</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="11"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9631DF2-D0CB-4870-AC89-D07B13C479CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113F73E-540C-4EFF-815C-4643CFA43071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4608" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -769,7 +769,7 @@
       </c>
       <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46077.716632407406</v>
+        <v>46077.731461574076</v>
       </c>
       <c r="C17" s="12"/>
       <c r="H17" s="7"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46077.716631481482</v>
+        <v>46077.731461574076</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -847,7 +847,7 @@
       </c>
       <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113F73E-540C-4EFF-815C-4643CFA43071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B04CB47-BD1A-45C3-8BEF-B94F395D465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4608" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,9 +608,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2)</v>
       </c>
-      <c r="B5" s="3" cm="1">
-        <f t="array" ref="B5">_xll.TBXLL_AddOptional(1,2)</f>
-        <v>3</v>
+      <c r="B5" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">_xll.TBXLL_AddOptional(1,2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C5" s="6"/>
       <c r="H5" s="7"/>
@@ -620,9 +620,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2,3)</v>
       </c>
-      <c r="B6" s="3" cm="1">
-        <f t="array" ref="B6">_xll.TBXLL_AddOptional(1,2,3)</f>
-        <v>6</v>
+      <c r="B6" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B6" ca="1">_xll.TBXLL_AddOptional(1,2,3)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C6" s="6"/>
       <c r="H6" s="7"/>
@@ -633,8 +633,8 @@
         <v>=TBXLL_AlwaysDiv0()</v>
       </c>
       <c r="B7" s="3" t="e" cm="1">
-        <f t="array" ref="B7">_xll.TBXLL_AlwaysDiv0()</f>
-        <v>#DIV/0!</v>
+        <f t="array" aca="1" ref="B7" ca="1">_xll.TBXLL_AlwaysDiv0()</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C7" s="6"/>
       <c r="H7" s="7"/>
@@ -645,8 +645,8 @@
         <v>=TBXLL_Divide(10,0)</v>
       </c>
       <c r="B8" s="3" t="e" cm="1">
-        <f t="array" ref="B8">_xll.TBXLL_Divide(10,0)</f>
-        <v>#DIV/0!</v>
+        <f t="array" aca="1" ref="B8" ca="1">_xll.TBXLL_Divide(10,0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C8" s="6"/>
       <c r="H8" s="7"/>
@@ -657,7 +657,7 @@
         <v>=TBXLL_FailAfterSum({1,2,3})</v>
       </c>
       <c r="B9" s="3" t="e" cm="1">
-        <f t="array" ref="B9">_xll.TBXLL_FailAfterSum({1,2,3})</f>
+        <f t="array" aca="1" ref="B9" ca="1">_xll.TBXLL_FailAfterSum({1,2,3})</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="6"/>
@@ -669,8 +669,8 @@
         <v>=TBXLL_NotFound()</v>
       </c>
       <c r="B10" s="3" t="e" cm="1">
-        <f t="array" ref="B10">_xll.TBXLL_NotFound()</f>
-        <v>#N/A</v>
+        <f t="array" aca="1" ref="B10" ca="1">_xll.TBXLL_NotFound()</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C10" s="6"/>
       <c r="H10" s="7"/>
@@ -681,8 +681,8 @@
         <v>=TBXLL_SqrtChecked(-1)</v>
       </c>
       <c r="B11" s="3" t="e" cm="1">
-        <f t="array" ref="B11">_xll.TBXLL_SqrtChecked(-1)</f>
-        <v>#NUM!</v>
+        <f t="array" aca="1" ref="B11" ca="1">_xll.TBXLL_SqrtChecked(-1)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C11" s="6"/>
       <c r="H11" s="7"/>
@@ -693,7 +693,7 @@
         <v>=TBXLL_TextOnly(25)</v>
       </c>
       <c r="B12" s="3" t="e" cm="1">
-        <f t="array" ref="B12">_xll.TBXLL_TextOnly(25)</f>
+        <f t="array" aca="1" ref="B12" ca="1">_xll.TBXLL_TextOnly(25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C12" s="6"/>
@@ -704,9 +704,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Average({1,2,3})</v>
       </c>
-      <c r="B13" s="3" cm="1">
-        <f t="array" ref="B13">_xll.TBXLL_Average({1,2,3})</f>
-        <v>2</v>
+      <c r="B13" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B13" ca="1">_xll.TBXLL_Average({1,2,3})</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" s="6"/>
       <c r="H13" s="7"/>
@@ -716,9 +716,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,D14,"result")</v>
       </c>
-      <c r="B14" s="3" t="str" cm="1">
-        <f t="array" ref="B14">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
-        <v>result: 20</v>
+      <c r="B14" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B14" ca="1">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" t="b">
@@ -731,9 +731,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,D15,"result")</v>
       </c>
-      <c r="B15" s="3" t="str" cm="1">
-        <f t="array" ref="B15">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
-        <v>result: 10</v>
+      <c r="B15" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B15" ca="1">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" t="b">
@@ -746,9 +746,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_CountIf(D16:F16,"&gt;=3")</v>
       </c>
-      <c r="B16" s="3" cm="1">
-        <f t="array" ref="B16">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
-        <v>2</v>
+      <c r="B16" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B16" ca="1">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16">
@@ -767,9 +767,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Now()</v>
       </c>
-      <c r="B17" s="4" cm="1">
+      <c r="B17" s="4" t="e" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46077.731461574076</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C17" s="12"/>
       <c r="H17" s="7"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46077.731461574076</v>
+        <v>46077.753140624998</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -792,9 +792,9 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=TBXLL_SqrtChecked(9)</v>
       </c>
-      <c r="B19" s="3" cm="1">
-        <f t="array" ref="B19">_xll.TBXLL_SqrtChecked(9)</f>
-        <v>3</v>
+      <c r="B19" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">_xll.TBXLL_SqrtChecked(9)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C19" s="6"/>
       <c r="H19" s="7"/>
@@ -804,9 +804,9 @@
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=TBXLL_TextOnly("25")</v>
       </c>
-      <c r="B20" s="3" t="str" cm="1">
-        <f t="array" ref="B20">_xll.TBXLL_TextOnly("25")</f>
-        <v>OK: 25</v>
+      <c r="B20" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">_xll.TBXLL_TextOnly("25")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C20" s="6"/>
       <c r="H20" s="7"/>
@@ -816,16 +816,11 @@
         <f ca="1">_xlfn.FORMULATEXT(B21)</f>
         <v>=TBXLL_Transpose({1;2;3})</v>
       </c>
-      <c r="B21" s="3" cm="1">
-        <f t="array" ref="B21:D21">_xll.TBXLL_Transpose({1;2;3})</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
+      <c r="B21" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">_xll.TBXLL_Transpose({1;2;3})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C21" s="6"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -833,9 +828,9 @@
         <f t="shared" ref="A22:A31" ca="1" si="1">_xlfn.FORMULATEXT(B22)</f>
         <v>=TBXLL_Upper("mike")</v>
       </c>
-      <c r="B22" s="3" t="str" cm="1">
-        <f t="array" ref="B22">_xll.TBXLL_Upper("mike")</f>
-        <v>MIKE</v>
+      <c r="B22" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B22" ca="1">_xll.TBXLL_Upper("mike")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C22" s="6"/>
       <c r="H22" s="7"/>
@@ -845,9 +840,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_RecalcCounter()</v>
       </c>
-      <c r="B23" s="3" cm="1">
+      <c r="B23" s="3" t="e" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -857,9 +852,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray({1,2,3})</v>
       </c>
-      <c r="B24" s="3" cm="1">
-        <f t="array" ref="B24">_xll.TBXLL_SumArray({1,2,3})</f>
-        <v>6</v>
+      <c r="B24" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_SumArray({1,2,3})</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C24" s="6"/>
       <c r="H24" s="7"/>
@@ -869,9 +864,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray2({1,2,3})</v>
       </c>
-      <c r="B25" s="3" cm="1">
-        <f t="array" ref="B25">_xll.TBXLL_SumArray2({1,2,3})</f>
-        <v>6</v>
+      <c r="B25" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B25" ca="1">_xll.TBXLL_SumArray2({1,2,3})</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C25" s="6"/>
       <c r="H25" s="7"/>
@@ -893,9 +888,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>{=TBXLL_Join(D27:F28,TRUE)}</v>
       </c>
-      <c r="B27" s="3" t="str">
-        <f t="array" ref="B27">_xll.TBXLL_Join(D27:F28,TRUE)</f>
-        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
+      <c r="B27" s="3" t="e">
+        <f t="array" aca="1" ref="B27" ca="1">_xll.TBXLL_Join(D27:F28,TRUE)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" t="s">
@@ -914,9 +909,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join(D27:F28,FALSE)</v>
       </c>
-      <c r="B28" s="3" t="str" cm="1">
-        <f t="array" ref="B28">_xll.TBXLL_Join(D27:F28,FALSE)</f>
-        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
+      <c r="B28" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">_xll.TBXLL_Join(D27:F28,FALSE)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" t="s">
@@ -935,9 +930,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
       </c>
-      <c r="B29" s="3" t="str" cm="1">
-        <f t="array" ref="B29">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
-        <v>11,21,12,22,13,23</v>
+      <c r="B29" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B29" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C29" s="6"/>
       <c r="H29" s="7"/>
@@ -947,9 +942,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
       </c>
-      <c r="B30" s="3" t="str" cm="1">
-        <f t="array" ref="B30">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
-        <v>11,12,13,21,22,23</v>
+      <c r="B30" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C30" s="6"/>
       <c r="H30" s="7"/>
@@ -959,9 +954,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_Join({11,12,13;21,22,23})</v>
       </c>
-      <c r="B31" s="3" t="str" cm="1">
-        <f t="array" ref="B31">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
-        <v>11,12,13,21,22,23</v>
+      <c r="B31" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B31" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C31" s="6"/>
       <c r="H31" s="7"/>
@@ -971,9 +966,9 @@
         <f t="shared" ref="A32:A39" ca="1" si="2">_xlfn.FORMULATEXT(B32)</f>
         <v>=TBXLL_CellValue(testNamedRange)</v>
       </c>
-      <c r="B32" s="3" t="b" cm="1">
-        <f t="array" ref="B32">_xll.TBXLL_CellValue(testNamedRange)</f>
-        <v>1</v>
+      <c r="B32" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B32" ca="1">_xll.TBXLL_CellValue(testNamedRange)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C32" s="6" t="b">
         <v>1</v>
@@ -985,9 +980,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_CellValue(C33)</v>
       </c>
-      <c r="B33" s="3" cm="1">
-        <f t="array" ref="B33">_xll.TBXLL_CellValue(C33)</f>
-        <v>99</v>
+      <c r="B33" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">_xll.TBXLL_CellValue(C33)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C33" s="6">
         <v>99</v>
@@ -999,9 +994,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_SheetName(D34)</v>
       </c>
-      <c r="B34" s="3" t="str" cm="1">
-        <f t="array" ref="B34">_xll.TBXLL_SheetName(D34)</f>
-        <v>[tests.xlsx]Sheet1</v>
+      <c r="B34" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B34" ca="1">_xll.TBXLL_SheetName(D34)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C34" s="6"/>
       <c r="H34" s="7"/>
@@ -1011,9 +1006,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_IsEmptyCell(C35)</v>
       </c>
-      <c r="B35" s="3" t="b" cm="1">
-        <f t="array" ref="B35">_xll.TBXLL_IsEmptyCell(C35)</f>
-        <v>1</v>
+      <c r="B35" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B35" ca="1">_xll.TBXLL_IsEmptyCell(C35)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C35" s="6"/>
       <c r="H35" s="7"/>
@@ -1023,9 +1018,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>=TBXLL_TestMissing(3.6)</v>
       </c>
-      <c r="B36" s="3" cm="1">
-        <f t="array" ref="B36">_xll.TBXLL_TestMissing(3.6)</f>
-        <v>4</v>
+      <c r="B36" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B36" ca="1">_xll.TBXLL_TestMissing(3.6)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C36" s="6"/>
       <c r="H36" s="7"/>
@@ -1035,9 +1030,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
-      <c r="B37" s="3">
-        <f t="array" ref="B37:B39">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
-        <v>2</v>
+      <c r="B37" s="3" t="e">
+        <f t="array" aca="1" ref="B37:B39" ca="1">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37">
@@ -1053,8 +1048,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
-      <c r="B38" s="3">
-        <v>20</v>
+      <c r="B38" s="3" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38">
@@ -1070,8 +1066,9 @@
         <f t="shared" ca="1" si="2"/>
         <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
-      <c r="B39" s="3">
-        <v>4</v>
+      <c r="B39" s="3" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39">
@@ -1087,18 +1084,21 @@
         <f t="shared" ref="A40:A45" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
         <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
       </c>
-      <c r="B40" s="5">
-        <f t="array" ref="B40:E40">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="C40" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.46296296296296297</v>
+      <c r="B40" s="5" t="e">
+        <f t="array" aca="1" ref="B40:E40" ca="1">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="8" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D40" s="9" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" s="9" t="e">
+        <f ca="1"/>
+        <v>#VALUE!</v>
       </c>
       <c r="H40" s="7"/>
     </row>
@@ -1107,9 +1107,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcSafe(100)</v>
       </c>
-      <c r="B41" s="3" cm="1">
-        <f t="array" ref="B41">_xll.TBXLL_SlowCalcSafe(100)</f>
-        <v>66666716645.884483</v>
+      <c r="B41" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">_xll.TBXLL_SlowCalcSafe(100)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C41" s="6"/>
       <c r="H41" s="7"/>
@@ -1119,9 +1119,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SlowCalcUnsafe(100)</v>
       </c>
-      <c r="B42" s="3" cm="1">
-        <f t="array" ref="B42">_xll.TBXLL_SlowCalcUnsafe(100)</f>
-        <v>66666716645.884483</v>
+      <c r="B42" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">_xll.TBXLL_SlowCalcUnsafe(100)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C42" s="6"/>
       <c r="H42" s="7"/>
@@ -1131,9 +1131,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_NumberName(9)</v>
       </c>
-      <c r="B43" s="3" t="str" cm="1">
-        <f t="array" ref="B43">_xll.TBXLL_NumberName(9)</f>
-        <v>Nine</v>
+      <c r="B43" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">_xll.TBXLL_NumberName(9)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C43" s="6"/>
       <c r="H43" s="7"/>
@@ -1143,9 +1143,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_RomanNumeral(9)</v>
       </c>
-      <c r="B44" s="3" t="str" cm="1">
-        <f t="array" ref="B44">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>IX</v>
+      <c r="B44" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -1154,9 +1154,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_CellAddress(C45)</v>
       </c>
-      <c r="B45" s="3" t="str" cm="1">
-        <f t="array" ref="B45">_xll.TBXLL_CellAddress(C45)</f>
-        <v>$B$44</v>
+      <c r="B45" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">_xll.TBXLL_CellAddress(C45)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B04CB47-BD1A-45C3-8BEF-B94F395D465E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88C1B5-C1FF-4CFD-BFC6-CE900965A4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4608" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="testNamedRange" localSheetId="0">Sheet1!$C$32</definedName>
+    <definedName name="testNamedRange" localSheetId="0">Sheet1!$C$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -532,8 +532,8 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -608,9 +608,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2)</v>
       </c>
-      <c r="B5" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B5" ca="1">_xll.TBXLL_AddOptional(1,2)</f>
-        <v>#VALUE!</v>
+      <c r="B5" s="3" cm="1">
+        <f t="array" ref="B5">_xll.TBXLL_AddOptional(1,2)</f>
+        <v>3</v>
       </c>
       <c r="C5" s="6"/>
       <c r="H5" s="7"/>
@@ -620,9 +620,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2,3)</v>
       </c>
-      <c r="B6" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B6" ca="1">_xll.TBXLL_AddOptional(1,2,3)</f>
-        <v>#VALUE!</v>
+      <c r="B6" s="3" cm="1">
+        <f t="array" ref="B6">_xll.TBXLL_AddOptional(1,2,3)</f>
+        <v>6</v>
       </c>
       <c r="C6" s="6"/>
       <c r="H6" s="7"/>
@@ -633,8 +633,8 @@
         <v>=TBXLL_AlwaysDiv0()</v>
       </c>
       <c r="B7" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B7" ca="1">_xll.TBXLL_AlwaysDiv0()</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B7">_xll.TBXLL_AlwaysDiv0()</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C7" s="6"/>
       <c r="H7" s="7"/>
@@ -645,8 +645,8 @@
         <v>=TBXLL_Divide(10,0)</v>
       </c>
       <c r="B8" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B8" ca="1">_xll.TBXLL_Divide(10,0)</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B8">_xll.TBXLL_Divide(10,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C8" s="6"/>
       <c r="H8" s="7"/>
@@ -657,7 +657,7 @@
         <v>=TBXLL_FailAfterSum({1,2,3})</v>
       </c>
       <c r="B9" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B9" ca="1">_xll.TBXLL_FailAfterSum({1,2,3})</f>
+        <f t="array" ref="B9">_xll.TBXLL_FailAfterSum({1,2,3})</f>
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="6"/>
@@ -669,8 +669,8 @@
         <v>=TBXLL_NotFound()</v>
       </c>
       <c r="B10" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B10" ca="1">_xll.TBXLL_NotFound()</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B10">_xll.TBXLL_NotFound()</f>
+        <v>#N/A</v>
       </c>
       <c r="C10" s="6"/>
       <c r="H10" s="7"/>
@@ -681,8 +681,8 @@
         <v>=TBXLL_SqrtChecked(-1)</v>
       </c>
       <c r="B11" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B11" ca="1">_xll.TBXLL_SqrtChecked(-1)</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B11">_xll.TBXLL_SqrtChecked(-1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="C11" s="6"/>
       <c r="H11" s="7"/>
@@ -693,7 +693,7 @@
         <v>=TBXLL_TextOnly(25)</v>
       </c>
       <c r="B12" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B12" ca="1">_xll.TBXLL_TextOnly(25)</f>
+        <f t="array" ref="B12">_xll.TBXLL_TextOnly(25)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C12" s="6"/>
@@ -704,9 +704,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Average({1,2,3})</v>
       </c>
-      <c r="B13" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B13" ca="1">_xll.TBXLL_Average({1,2,3})</f>
-        <v>#VALUE!</v>
+      <c r="B13" s="3" cm="1">
+        <f t="array" ref="B13">_xll.TBXLL_Average({1,2,3})</f>
+        <v>2</v>
       </c>
       <c r="C13" s="6"/>
       <c r="H13" s="7"/>
@@ -716,9 +716,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,D14,"result")</v>
       </c>
-      <c r="B14" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B14" ca="1">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
-        <v>#VALUE!</v>
+      <c r="B14" s="3" t="str" cm="1">
+        <f t="array" ref="B14">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
+        <v>result: 20</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" t="b">
@@ -731,9 +731,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_ConditionalAdd(10,D15,"result")</v>
       </c>
-      <c r="B15" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B15" ca="1">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
-        <v>#VALUE!</v>
+      <c r="B15" s="3" t="str" cm="1">
+        <f t="array" ref="B15">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
+        <v>result: 10</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" t="b">
@@ -746,9 +746,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_CountIf(D16:F16,"&gt;=3")</v>
       </c>
-      <c r="B16" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B16" ca="1">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
-        <v>#VALUE!</v>
+      <c r="B16" s="3" cm="1">
+        <f t="array" ref="B16">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
+        <v>2</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16">
@@ -767,9 +767,9 @@
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_Now()</v>
       </c>
-      <c r="B17" s="4" t="e" cm="1">
+      <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>#VALUE!</v>
+        <v>46078.244857523146</v>
       </c>
       <c r="C17" s="12"/>
       <c r="H17" s="7"/>
@@ -782,7 +782,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46077.753140624998</v>
+        <v>46078.244857175923</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -792,9 +792,9 @@
         <f ca="1">_xlfn.FORMULATEXT(B19)</f>
         <v>=TBXLL_SqrtChecked(9)</v>
       </c>
-      <c r="B19" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">_xll.TBXLL_SqrtChecked(9)</f>
-        <v>#VALUE!</v>
+      <c r="B19" s="3" cm="1">
+        <f t="array" ref="B19">_xll.TBXLL_SqrtChecked(9)</f>
+        <v>3</v>
       </c>
       <c r="C19" s="6"/>
       <c r="H19" s="7"/>
@@ -804,9 +804,9 @@
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
         <v>=TBXLL_TextOnly("25")</v>
       </c>
-      <c r="B20" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B20" ca="1">_xll.TBXLL_TextOnly("25")</f>
-        <v>#VALUE!</v>
+      <c r="B20" s="3" t="str" cm="1">
+        <f t="array" ref="B20">_xll.TBXLL_TextOnly("25")</f>
+        <v>OK: 25</v>
       </c>
       <c r="C20" s="6"/>
       <c r="H20" s="7"/>
@@ -816,21 +816,26 @@
         <f ca="1">_xlfn.FORMULATEXT(B21)</f>
         <v>=TBXLL_Transpose({1;2;3})</v>
       </c>
-      <c r="B21" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">_xll.TBXLL_Transpose({1;2;3})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" s="6"/>
+      <c r="B21" s="3" cm="1">
+        <f t="array" ref="B21:D21">_xll.TBXLL_Transpose({1;2;3})</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="str">
-        <f t="shared" ref="A22:A31" ca="1" si="1">_xlfn.FORMULATEXT(B22)</f>
+        <f t="shared" ref="A22:A30" ca="1" si="1">_xlfn.FORMULATEXT(B22)</f>
         <v>=TBXLL_Upper("mike")</v>
       </c>
-      <c r="B22" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B22" ca="1">_xll.TBXLL_Upper("mike")</f>
-        <v>#VALUE!</v>
+      <c r="B22" s="3" t="str" cm="1">
+        <f t="array" ref="B22">_xll.TBXLL_Upper("mike")</f>
+        <v>MIKE</v>
       </c>
       <c r="C22" s="6"/>
       <c r="H22" s="7"/>
@@ -840,9 +845,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_RecalcCounter()</v>
       </c>
-      <c r="B23" s="3" t="e" cm="1">
+      <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>#VALUE!</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -852,9 +857,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray({1,2,3})</v>
       </c>
-      <c r="B24" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_SumArray({1,2,3})</f>
-        <v>#VALUE!</v>
+      <c r="B24" s="3" cm="1">
+        <f t="array" ref="B24">_xll.TBXLL_SumArray({1,2,3})</f>
+        <v>6</v>
       </c>
       <c r="C24" s="6"/>
       <c r="H24" s="7"/>
@@ -864,9 +869,9 @@
         <f t="shared" ca="1" si="1"/>
         <v>=TBXLL_SumArray2({1,2,3})</v>
       </c>
-      <c r="B25" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B25" ca="1">_xll.TBXLL_SumArray2({1,2,3})</f>
-        <v>#VALUE!</v>
+      <c r="B25" s="3" cm="1">
+        <f t="array" ref="B25">_xll.TBXLL_SumArray2({1,2,3})</f>
+        <v>6</v>
       </c>
       <c r="C25" s="6"/>
       <c r="H25" s="7"/>
@@ -874,65 +879,65 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=SUM(F23:F25)</v>
-      </c>
-      <c r="B26" s="3">
-        <f>SUM(F23:F25)</f>
+        <v>{=TBXLL_Join(D26:F27,TRUE)}</v>
+      </c>
+      <c r="B26" s="3" t="str">
+        <f t="array" ref="B26">_xll.TBXLL_Join(D26:F27,TRUE)</f>
+        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{=TBXLL_Join(D27:F28,TRUE)}</v>
-      </c>
-      <c r="B27" s="3" t="e">
-        <f t="array" aca="1" ref="B27" ca="1">_xll.TBXLL_Join(D27:F28,TRUE)</f>
-        <v>#VALUE!</v>
+        <v>=TBXLL_Join(D26:F27,FALSE)</v>
+      </c>
+      <c r="B27" s="3" t="str" cm="1">
+        <f t="array" ref="B27">_xll.TBXLL_Join(D26:F27,FALSE)</f>
+        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join(D27:F28,FALSE)</v>
-      </c>
-      <c r="B28" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B28" ca="1">_xll.TBXLL_Join(D27:F28,FALSE)</f>
-        <v>#VALUE!</v>
+        <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
+      </c>
+      <c r="B28" s="3" t="str" cm="1">
+        <f t="array" ref="B28">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
+        <v>11,21,12,22,13,23</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
-      </c>
-      <c r="B29" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B29" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
-        <v>#VALUE!</v>
+        <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
+      </c>
+      <c r="B29" s="3" t="str" cm="1">
+        <f t="array" ref="B29">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
+        <v>11,12,13,21,22,23</v>
       </c>
       <c r="C29" s="6"/>
       <c r="H29" s="7"/>
@@ -940,63 +945,63 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
-      </c>
-      <c r="B30" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B30" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
-        <v>#VALUE!</v>
+        <v>=TBXLL_Join({11,12,13;21,22,23})</v>
+      </c>
+      <c r="B30" s="3" t="str" cm="1">
+        <f t="array" ref="B30">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
+        <v>11,12,13,21,22,23</v>
       </c>
       <c r="C30" s="6"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23})</v>
-      </c>
-      <c r="B31" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B31" ca="1">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" s="6"/>
+        <f t="shared" ref="A31:A38" ca="1" si="2">_xlfn.FORMULATEXT(B31)</f>
+        <v>=TBXLL_CellValue(testNamedRange)</v>
+      </c>
+      <c r="B31" s="3" t="b" cm="1">
+        <f t="array" ref="B31">_xll.TBXLL_CellValue(testNamedRange)</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="str">
-        <f t="shared" ref="A32:A39" ca="1" si="2">_xlfn.FORMULATEXT(B32)</f>
-        <v>=TBXLL_CellValue(testNamedRange)</v>
-      </c>
-      <c r="B32" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B32" ca="1">_xll.TBXLL_CellValue(testNamedRange)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C32" s="6" t="b">
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_CellValue(C32)</v>
+      </c>
+      <c r="B32" s="3" cm="1">
+        <f t="array" ref="B32">_xll.TBXLL_CellValue(C32)</f>
+        <v>99</v>
+      </c>
+      <c r="C32" s="6">
+        <v>99</v>
       </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_CellValue(C33)</v>
-      </c>
-      <c r="B33" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B33" ca="1">_xll.TBXLL_CellValue(C33)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" s="6">
-        <v>99</v>
-      </c>
+        <v>=TBXLL_SheetName(D33)</v>
+      </c>
+      <c r="B33" s="3" t="str" cm="1">
+        <f t="array" ref="B33">_xll.TBXLL_SheetName(D33)</f>
+        <v>[tests.xlsx]Sheet1</v>
+      </c>
+      <c r="C33" s="6"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_SheetName(D34)</v>
-      </c>
-      <c r="B34" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B34" ca="1">_xll.TBXLL_SheetName(D34)</f>
-        <v>#VALUE!</v>
+        <v>=TBXLL_IsEmptyCell(C34)</v>
+      </c>
+      <c r="B34" s="3" t="b" cm="1">
+        <f t="array" ref="B34">_xll.TBXLL_IsEmptyCell(C34)</f>
+        <v>1</v>
       </c>
       <c r="C34" s="6"/>
       <c r="H34" s="7"/>
@@ -1004,11 +1009,11 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_IsEmptyCell(C35)</v>
-      </c>
-      <c r="B35" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B35" ca="1">_xll.TBXLL_IsEmptyCell(C35)</f>
-        <v>#VALUE!</v>
+        <v>=TBXLL_TestMissing(3.6)</v>
+      </c>
+      <c r="B35" s="3" cm="1">
+        <f t="array" ref="B35">_xll.TBXLL_TestMissing(3.6)</f>
+        <v>4</v>
       </c>
       <c r="C35" s="6"/>
       <c r="H35" s="7"/>
@@ -1016,112 +1021,107 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_TestMissing(3.6)</v>
-      </c>
-      <c r="B36" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B36" ca="1">_xll.TBXLL_TestMissing(3.6)</f>
-        <v>#VALUE!</v>
+        <v>{=TBXLL_MultiplyArrays(D36:D38,E36:E38)}</v>
+      </c>
+      <c r="B36" s="3">
+        <f t="array" ref="B36:B38">_xll.TBXLL_MultiplyArrays(D36:D38,E36:E38)</f>
+        <v>2</v>
       </c>
       <c r="C36" s="6"/>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
-      </c>
-      <c r="B37" s="3" t="e">
-        <f t="array" aca="1" ref="B37:B39" ca="1">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
-        <v>#VALUE!</v>
+        <v>{=TBXLL_MultiplyArrays(D36:D38,E36:E38)}</v>
+      </c>
+      <c r="B37" s="3">
+        <v>20</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
-      </c>
-      <c r="B38" s="3" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+        <v>{=TBXLL_MultiplyArrays(D36:D38,E36:E38)}</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
-      </c>
-      <c r="B39" s="3" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
+        <f t="shared" ref="A39:A45" ca="1" si="3">_xlfn.FORMULATEXT(B39)</f>
+        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
+      </c>
+      <c r="B39" s="5">
+        <f t="array" ref="B39:E39">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.46296296296296297</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
-        <f t="shared" ref="A40:A45" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
-        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
-      </c>
-      <c r="B40" s="5" t="e">
-        <f t="array" aca="1" ref="B40:E40" ca="1">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" s="8" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" s="9" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" s="9" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_SpeedDynamicSafe(100)</v>
+      </c>
+      <c r="B40" s="3" cm="1">
+        <f t="array" ref="B40">_xll.TBXLL_SpeedDynamicSafe(100)</f>
+        <v>66666716645.884483</v>
+      </c>
+      <c r="C40" s="6"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SlowCalcSafe(100)</v>
-      </c>
-      <c r="B41" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B41" ca="1">_xll.TBXLL_SlowCalcSafe(100)</f>
-        <v>#VALUE!</v>
+        <v>=TBXLL_SpeedDynamicUnsafe(100)</v>
+      </c>
+      <c r="B41" s="3" cm="1">
+        <f t="array" ref="B41">_xll.TBXLL_SpeedDynamicUnsafe(100)</f>
+        <v>66666716645.884483</v>
       </c>
       <c r="C41" s="6"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SlowCalcUnsafe(100)</v>
-      </c>
-      <c r="B42" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B42" ca="1">_xll.TBXLL_SlowCalcUnsafe(100)</f>
-        <v>#VALUE!</v>
+        <f t="shared" ref="A42" ca="1" si="4">_xlfn.FORMULATEXT(B42)</f>
+        <v>=TBXLL_SpeedStaticUnsafe(100)</v>
+      </c>
+      <c r="B42" s="3" cm="1">
+        <f t="array" ref="B42">_xll.TBXLL_SpeedStaticUnsafe(100)</f>
+        <v>66666716645.884483</v>
       </c>
       <c r="C42" s="6"/>
       <c r="H42" s="7"/>
@@ -1131,9 +1131,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_NumberName(9)</v>
       </c>
-      <c r="B43" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B43" ca="1">_xll.TBXLL_NumberName(9)</f>
-        <v>#VALUE!</v>
+      <c r="B43" s="3" t="str" cm="1">
+        <f t="array" ref="B43">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
       </c>
       <c r="C43" s="6"/>
       <c r="H43" s="7"/>
@@ -1143,9 +1143,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_RomanNumeral(9)</v>
       </c>
-      <c r="B44" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B44" ca="1">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>#VALUE!</v>
+      <c r="B44" s="3" t="str" cm="1">
+        <f t="array" ref="B44">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
       </c>
       <c r="H44" s="7"/>
     </row>
@@ -1154,9 +1154,9 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_CellAddress(C45)</v>
       </c>
-      <c r="B45" s="3" t="e" cm="1">
-        <f t="array" aca="1" ref="B45" ca="1">_xll.TBXLL_CellAddress(C45)</f>
-        <v>#VALUE!</v>
+      <c r="B45" s="3" t="str" cm="1">
+        <f t="array" ref="B45">_xll.TBXLL_CellAddress(C45)</f>
+        <v>$B$44</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88C1B5-C1FF-4CFD-BFC6-CE900965A4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D965A-5D0E-498A-AA6D-0E2AA102D560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4608" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -94,9 +94,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -123,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -221,11 +222,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -248,6 +260,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,11 +545,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -769,7 +785,7 @@
       </c>
       <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46078.244857523146</v>
+        <v>46078.501347106481</v>
       </c>
       <c r="C17" s="12"/>
       <c r="H17" s="7"/>
@@ -782,7 +798,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46078.244857175923</v>
+        <v>46078.501347106481</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -847,7 +863,7 @@
       </c>
       <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -1072,7 +1088,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
-        <f t="shared" ref="A39:A45" ca="1" si="3">_xlfn.FORMULATEXT(B39)</f>
+        <f t="shared" ref="A39:A47" ca="1" si="3">_xlfn.FORMULATEXT(B39)</f>
         <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
       </c>
       <c r="B39" s="5">
@@ -1097,7 +1113,7 @@
       </c>
       <c r="B40" s="3" cm="1">
         <f t="array" ref="B40">_xll.TBXLL_SpeedDynamicSafe(100)</f>
-        <v>66666716645.884483</v>
+        <v>66671645.919710793</v>
       </c>
       <c r="C40" s="6"/>
       <c r="H40" s="7"/>
@@ -1109,7 +1125,7 @@
       </c>
       <c r="B41" s="3" cm="1">
         <f t="array" ref="B41">_xll.TBXLL_SpeedDynamicUnsafe(100)</f>
-        <v>66666716645.884483</v>
+        <v>66671645.919710793</v>
       </c>
       <c r="C41" s="6"/>
       <c r="H41" s="7"/>
@@ -1121,7 +1137,7 @@
       </c>
       <c r="B42" s="3" cm="1">
         <f t="array" ref="B42">_xll.TBXLL_SpeedStaticUnsafe(100)</f>
-        <v>66666716645.884483</v>
+        <v>66671645.919710793</v>
       </c>
       <c r="C42" s="6"/>
       <c r="H42" s="7"/>
@@ -1154,16 +1170,52 @@
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_CellAddress(C45)</v>
       </c>
-      <c r="B45" s="3" t="str" cm="1">
+      <c r="B45" s="16" t="str" cm="1">
         <f t="array" ref="B45">_xll.TBXLL_CellAddress(C45)</f>
         <v>$B$44</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_AddDays(NOW(),7)</v>
+      </c>
+      <c r="B46" s="17" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
+        <v>46085.501347106481</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_FormatArray({1,2,3},"item")</v>
+      </c>
+      <c r="B47" s="16" t="str" cm="1">
+        <f t="array" ref="B47:D47">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
+        <v>item_1</v>
+      </c>
+      <c r="C47" s="19" t="str">
+        <v>item_2</v>
+      </c>
+      <c r="D47" s="10" t="str">
+        <v>item_3</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D965A-5D0E-498A-AA6D-0E2AA102D560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91E4560-822C-44FE-956E-9FCCAC5FFEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -87,7 +87,7 @@
     <t>UDF Call</t>
   </si>
   <si>
-    <t>Playground</t>
+    <t>Sandbox</t>
   </si>
 </sst>
 </file>
@@ -251,6 +251,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,10 +264,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,11 +545,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -568,14 +568,14 @@
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="str">
@@ -785,7 +785,7 @@
       </c>
       <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46078.501347106481</v>
+        <v>46079.268805324071</v>
       </c>
       <c r="C17" s="12"/>
       <c r="H17" s="7"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46078.501347106481</v>
+        <v>46079.268805324071</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
-        <f t="shared" ref="A39:A47" ca="1" si="3">_xlfn.FORMULATEXT(B39)</f>
+        <f t="shared" ref="A39:A48" ca="1" si="3">_xlfn.FORMULATEXT(B39)</f>
         <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
       </c>
       <c r="B39" s="5">
@@ -1132,7 +1132,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="str">
-        <f t="shared" ref="A42" ca="1" si="4">_xlfn.FORMULATEXT(B42)</f>
+        <f t="shared" ref="A42:A43" ca="1" si="4">_xlfn.FORMULATEXT(B42)</f>
         <v>=TBXLL_SpeedStaticUnsafe(100)</v>
       </c>
       <c r="B42" s="3" cm="1">
@@ -1144,12 +1144,12 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_NumberName(9)</v>
-      </c>
-      <c r="B43" s="3" t="str" cm="1">
-        <f t="array" ref="B43">_xll.TBXLL_NumberName(9)</f>
-        <v>Nine</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_Timestamp()</v>
+      </c>
+      <c r="B43" s="16" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">_xll.TBXLL_Timestamp()</f>
+        <v>65615.379600200002</v>
       </c>
       <c r="C43" s="6"/>
       <c r="H43" s="7"/>
@@ -1157,65 +1157,69 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_RomanNumeral(9)</v>
+        <v>=TBXLL_NumberName(9)</v>
       </c>
       <c r="B44" s="3" t="str" cm="1">
-        <f t="array" ref="B44">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>IX</v>
-      </c>
+        <f t="array" ref="B44">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
+      </c>
+      <c r="C44" s="6"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_CellAddress(C45)</v>
-      </c>
-      <c r="B45" s="16" t="str" cm="1">
-        <f t="array" ref="B45">_xll.TBXLL_CellAddress(C45)</f>
-        <v>$B$44</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+        <v>=TBXLL_RomanNumeral(9)</v>
+      </c>
+      <c r="B45" s="3" t="str" cm="1">
+        <f t="array" ref="B45">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
+      </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_AddDays(NOW(),7)</v>
-      </c>
-      <c r="B46" s="17" cm="1">
-        <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46085.501347106481</v>
+        <v>=TBXLL_CellAddress(C46)</v>
+      </c>
+      <c r="B46" s="13" t="str" cm="1">
+        <f t="array" ref="B46">_xll.TBXLL_CellAddress(C46)</f>
+        <v>$B$45</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_AddDays(NOW(),7)</v>
+      </c>
+      <c r="B47" s="14" cm="1">
+        <f t="array" aca="1" ref="B47" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
+        <v>46086.268805324071</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_FormatArray({1,2,3},"item")</v>
       </c>
-      <c r="B47" s="16" t="str" cm="1">
-        <f t="array" ref="B47:D47">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
+      <c r="B48" s="13" t="str" cm="1">
+        <f t="array" ref="B48:D48">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
         <v>item_1</v>
       </c>
-      <c r="C47" s="19" t="str">
+      <c r="C48" s="15" t="str">
         <v>item_2</v>
       </c>
-      <c r="D47" s="10" t="str">
+      <c r="D48" s="10" t="str">
         <v>item_3</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91E4560-822C-44FE-956E-9FCCAC5FFEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800DAB86-792C-4884-9FDB-DE9FF455EB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2298" yWindow="132" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,11 +545,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -785,7 +785,7 @@
       </c>
       <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46079.268805324071</v>
+        <v>46079.421814699075</v>
       </c>
       <c r="C17" s="12"/>
       <c r="H17" s="7"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46079.268805324071</v>
+        <v>46079.421814699075</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
-        <f t="shared" ref="A39:A48" ca="1" si="3">_xlfn.FORMULATEXT(B39)</f>
+        <f t="shared" ref="A39:A47" ca="1" si="3">_xlfn.FORMULATEXT(B39)</f>
         <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
       </c>
       <c r="B39" s="5">
@@ -1109,10 +1109,10 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SpeedDynamicSafe(100)</v>
+        <v>=TBXLL_SpeedSafe(100)</v>
       </c>
       <c r="B40" s="3" cm="1">
-        <f t="array" ref="B40">_xll.TBXLL_SpeedDynamicSafe(100)</f>
+        <f t="array" ref="B40">_xll.TBXLL_SpeedSafe(100)</f>
         <v>66671645.919710793</v>
       </c>
       <c r="C40" s="6"/>
@@ -1121,10 +1121,10 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SpeedDynamicUnsafe(100)</v>
+        <v>=TBXLL_SpeedUnsafe(100)</v>
       </c>
       <c r="B41" s="3" cm="1">
-        <f t="array" ref="B41">_xll.TBXLL_SpeedDynamicUnsafe(100)</f>
+        <f t="array" ref="B41">_xll.TBXLL_SpeedUnsafe(100)</f>
         <v>66671645.919710793</v>
       </c>
       <c r="C41" s="6"/>
@@ -1132,24 +1132,24 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="str">
-        <f t="shared" ref="A42:A43" ca="1" si="4">_xlfn.FORMULATEXT(B42)</f>
-        <v>=TBXLL_SpeedStaticUnsafe(100)</v>
-      </c>
-      <c r="B42" s="3" cm="1">
-        <f t="array" ref="B42">_xll.TBXLL_SpeedStaticUnsafe(100)</f>
-        <v>66671645.919710793</v>
+        <f t="shared" ref="A42" ca="1" si="4">_xlfn.FORMULATEXT(B42)</f>
+        <v>=TBXLL_Timestamp()</v>
+      </c>
+      <c r="B42" s="16" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">_xll.TBXLL_Timestamp()</f>
+        <v>78835.393299200005</v>
       </c>
       <c r="C42" s="6"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>=TBXLL_Timestamp()</v>
-      </c>
-      <c r="B43" s="16" cm="1">
-        <f t="array" aca="1" ref="B43" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>65615.379600200002</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_NumberName(9)</v>
+      </c>
+      <c r="B43" s="3" t="str" cm="1">
+        <f t="array" ref="B43">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
       </c>
       <c r="C43" s="6"/>
       <c r="H43" s="7"/>
@@ -1157,34 +1157,34 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_NumberName(9)</v>
+        <v>=TBXLL_RomanNumeral(9)</v>
       </c>
       <c r="B44" s="3" t="str" cm="1">
-        <f t="array" ref="B44">_xll.TBXLL_NumberName(9)</f>
-        <v>Nine</v>
-      </c>
-      <c r="C44" s="6"/>
+        <f t="array" ref="B44">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
+      </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_RomanNumeral(9)</v>
-      </c>
-      <c r="B45" s="3" t="str" cm="1">
-        <f t="array" ref="B45">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>IX</v>
-      </c>
+        <v>=TBXLL_CellAddress(C45)</v>
+      </c>
+      <c r="B45" s="13" t="str" cm="1">
+        <f t="array" ref="B45">_xll.TBXLL_CellAddress(C45)</f>
+        <v>$B$44</v>
+      </c>
+      <c r="C45" s="6"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_CellAddress(C46)</v>
-      </c>
-      <c r="B46" s="13" t="str" cm="1">
-        <f t="array" ref="B46">_xll.TBXLL_CellAddress(C46)</f>
-        <v>$B$45</v>
+        <v>=TBXLL_AddDays(NOW(),7)</v>
+      </c>
+      <c r="B46" s="14" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
+        <v>46086.421814699075</v>
       </c>
       <c r="C46" s="6"/>
       <c r="H46" s="7"/>
@@ -1192,34 +1192,22 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_AddDays(NOW(),7)</v>
-      </c>
-      <c r="B47" s="14" cm="1">
-        <f t="array" aca="1" ref="B47" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46086.268805324071</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_FormatArray({1,2,3},"item")</v>
       </c>
-      <c r="B48" s="13" t="str" cm="1">
-        <f t="array" ref="B48:D48">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
+      <c r="B47" s="13" t="str" cm="1">
+        <f t="array" ref="B47:D47">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
         <v>item_1</v>
       </c>
-      <c r="C48" s="15" t="str">
+      <c r="C47" s="15" t="str">
         <v>item_2</v>
       </c>
-      <c r="D48" s="10" t="str">
+      <c r="D47" s="10" t="str">
         <v>item_3</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="11"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800DAB86-792C-4884-9FDB-DE9FF455EB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B8D516-AC9E-498F-84F0-BFDA3ACA882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2298" yWindow="132" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -785,7 +785,7 @@
       </c>
       <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46079.421814699075</v>
+        <v>46079.496232291669</v>
       </c>
       <c r="C17" s="12"/>
       <c r="H17" s="7"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46079.421814699075</v>
+        <v>46079.496232291669</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B42" s="16" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>78835.393299200005</v>
+        <v>85265.068323800006</v>
       </c>
       <c r="C42" s="6"/>
       <c r="H42" s="7"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B46" s="14" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46086.421814699075</v>
+        <v>46086.496232291669</v>
       </c>
       <c r="C46" s="6"/>
       <c r="H46" s="7"/>

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B8D516-AC9E-498F-84F0-BFDA3ACA882E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1CA36A-35C0-402E-A07C-1CC8DB9682CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2298" yWindow="132" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -785,7 +785,7 @@
       </c>
       <c r="B17" s="4" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46079.496232291669</v>
+        <v>46079.590263888887</v>
       </c>
       <c r="C17" s="12"/>
       <c r="H17" s="7"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="B18" s="4">
         <f ca="1">NOW()</f>
-        <v>46079.496232291669</v>
+        <v>46079.590263888887</v>
       </c>
       <c r="C18" s="6"/>
       <c r="H18" s="7"/>
@@ -863,7 +863,7 @@
       </c>
       <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -972,7 +972,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="str">
-        <f t="shared" ref="A31:A38" ca="1" si="2">_xlfn.FORMULATEXT(B31)</f>
+        <f t="shared" ref="A31:A39" ca="1" si="2">_xlfn.FORMULATEXT(B31)</f>
         <v>=TBXLL_CellValue(testNamedRange)</v>
       </c>
       <c r="B31" s="3" t="b" cm="1">
@@ -1012,12 +1012,12 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_IsEmptyCell(C34)</v>
-      </c>
-      <c r="B34" s="3" t="b" cm="1">
-        <f t="array" ref="B34">_xll.TBXLL_IsEmptyCell(C34)</f>
-        <v>1</v>
+        <f ca="1">_xlfn.FORMULATEXT(B34)</f>
+        <v>=TBXLL_CellAddress(C34)</v>
+      </c>
+      <c r="B34" s="13" t="str" cm="1">
+        <f t="array" ref="B34">_xll.TBXLL_CellAddress(C34)</f>
+        <v>$C$34</v>
       </c>
       <c r="C34" s="6"/>
       <c r="H34" s="7"/>
@@ -1025,11 +1025,11 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_TestMissing(3.6)</v>
-      </c>
-      <c r="B35" s="3" cm="1">
-        <f t="array" ref="B35">_xll.TBXLL_TestMissing(3.6)</f>
-        <v>4</v>
+        <v>=TBXLL_IsEmptyCell(C35)</v>
+      </c>
+      <c r="B35" s="3" t="b" cm="1">
+        <f t="array" ref="B35">_xll.TBXLL_IsEmptyCell(C35)</f>
+        <v>1</v>
       </c>
       <c r="C35" s="6"/>
       <c r="H35" s="7"/>
@@ -1037,94 +1037,94 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D36:D38,E36:E38)}</v>
-      </c>
-      <c r="B36" s="3">
-        <f t="array" ref="B36:B38">_xll.TBXLL_MultiplyArrays(D36:D38,E36:E38)</f>
-        <v>2</v>
+        <v>=TBXLL_TestMissing(3.6)</v>
+      </c>
+      <c r="B36" s="3" cm="1">
+        <f t="array" ref="B36">_xll.TBXLL_TestMissing(3.6)</f>
+        <v>4</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D36:D38,E36:E38)}</v>
+        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
       <c r="B37" s="3">
-        <v>20</v>
+        <f t="array" ref="B37:B39">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
+        <v>2</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D36:D38,E36:E38)}</v>
+        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
       </c>
       <c r="B38" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
-        <f t="shared" ref="A39:A47" ca="1" si="3">_xlfn.FORMULATEXT(B39)</f>
-        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
-      </c>
-      <c r="B39" s="5">
-        <f t="array" ref="B39:E39">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="E39" s="9">
-        <v>0.46296296296296297</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
+      </c>
+      <c r="B39" s="3">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
       </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SpeedSafe(100)</v>
-      </c>
-      <c r="B40" s="3" cm="1">
-        <f t="array" ref="B40">_xll.TBXLL_SpeedSafe(100)</f>
-        <v>66671645.919710793</v>
-      </c>
-      <c r="C40" s="6"/>
+        <f t="shared" ref="A40:A47" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
+        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
+      </c>
+      <c r="B40" s="5">
+        <f t="array" ref="B40:E40">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C40" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0.46296296296296297</v>
+      </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SpeedUnsafe(100)</v>
+        <v>=TBXLL_SpeedSafe(100)</v>
       </c>
       <c r="B41" s="3" cm="1">
-        <f t="array" ref="B41">_xll.TBXLL_SpeedUnsafe(100)</f>
+        <f t="array" ref="B41">_xll.TBXLL_SpeedSafe(100)</f>
         <v>66671645.919710793</v>
       </c>
       <c r="C41" s="6"/>
@@ -1132,24 +1132,24 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="str">
-        <f t="shared" ref="A42" ca="1" si="4">_xlfn.FORMULATEXT(B42)</f>
-        <v>=TBXLL_Timestamp()</v>
-      </c>
-      <c r="B42" s="16" cm="1">
-        <f t="array" aca="1" ref="B42" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>85265.068323800006</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_SpeedUnsafe(100)</v>
+      </c>
+      <c r="B42" s="3" cm="1">
+        <f t="array" ref="B42">_xll.TBXLL_SpeedUnsafe(100)</f>
+        <v>66671645.919710793</v>
       </c>
       <c r="C42" s="6"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_NumberName(9)</v>
-      </c>
-      <c r="B43" s="3" t="str" cm="1">
-        <f t="array" ref="B43">_xll.TBXLL_NumberName(9)</f>
-        <v>Nine</v>
+        <f t="shared" ref="A43" ca="1" si="4">_xlfn.FORMULATEXT(B43)</f>
+        <v>=TBXLL_Timestamp()</v>
+      </c>
+      <c r="B43" s="16" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">_xll.TBXLL_Timestamp()</f>
+        <v>93389.402963100001</v>
       </c>
       <c r="C43" s="6"/>
       <c r="H43" s="7"/>
@@ -1157,24 +1157,24 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_RomanNumeral(9)</v>
+        <v>=TBXLL_NumberName(9)</v>
       </c>
       <c r="B44" s="3" t="str" cm="1">
-        <f t="array" ref="B44">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>IX</v>
-      </c>
+        <f t="array" ref="B44">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
+      </c>
+      <c r="C44" s="6"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_CellAddress(C45)</v>
-      </c>
-      <c r="B45" s="13" t="str" cm="1">
-        <f t="array" ref="B45">_xll.TBXLL_CellAddress(C45)</f>
-        <v>$B$44</v>
-      </c>
-      <c r="C45" s="6"/>
+        <v>=TBXLL_RomanNumeral(9)</v>
+      </c>
+      <c r="B45" s="3" t="str" cm="1">
+        <f t="array" ref="B45">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
+      </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B46" s="14" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46086.496232291669</v>
+        <v>46086.590263888887</v>
       </c>
       <c r="C46" s="6"/>
       <c r="H46" s="7"/>

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1CA36A-35C0-402E-A07C-1CC8DB9682CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F51E1A-425D-42CB-B31E-99629C0BFABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2298" yWindow="132" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="udf tests" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="testNamedRange" localSheetId="0">Sheet1!$C$31</definedName>
+    <definedName name="testNamedRange" localSheetId="0">'udf tests'!$C$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -545,11 +546,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -591,7 +592,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A18" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
+        <f t="shared" ref="A3:A19" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
         <v>=TBXLL_Multiply("10","2")</v>
       </c>
       <c r="B3" s="3" cm="1">
@@ -622,11 +623,11 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_AddOptional(1,2)</v>
+        <v>=TBXLL_Multiply(Sheet2!D5,Sheet2!E5)</v>
       </c>
       <c r="B5" s="3" cm="1">
-        <f t="array" ref="B5">_xll.TBXLL_AddOptional(1,2)</f>
-        <v>3</v>
+        <f t="array" ref="B5">_xll.TBXLL_Multiply(Sheet2!D5,Sheet2!E5)</f>
+        <v>20</v>
       </c>
       <c r="C5" s="6"/>
       <c r="H5" s="7"/>
@@ -634,11 +635,11 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_AddOptional(1,2,3)</v>
+        <v>=TBXLL_AddOptional(1,2)</v>
       </c>
       <c r="B6" s="3" cm="1">
-        <f t="array" ref="B6">_xll.TBXLL_AddOptional(1,2,3)</f>
-        <v>6</v>
+        <f t="array" ref="B6">_xll.TBXLL_AddOptional(1,2)</f>
+        <v>3</v>
       </c>
       <c r="C6" s="6"/>
       <c r="H6" s="7"/>
@@ -646,22 +647,22 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_AlwaysDiv0()</v>
-      </c>
-      <c r="B7" s="3" t="e" cm="1">
-        <f t="array" ref="B7">_xll.TBXLL_AlwaysDiv0()</f>
-        <v>#DIV/0!</v>
+        <v>=TBXLL_AddOptional(1,2,3)</v>
+      </c>
+      <c r="B7" s="3" cm="1">
+        <f t="array" ref="B7">_xll.TBXLL_AddOptional(1,2,3)</f>
+        <v>6</v>
       </c>
       <c r="C7" s="6"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B8)</f>
-        <v>=TBXLL_Divide(10,0)</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>=TBXLL_AlwaysDiv0()</v>
       </c>
       <c r="B8" s="3" t="e" cm="1">
-        <f t="array" ref="B8">_xll.TBXLL_Divide(10,0)</f>
+        <f t="array" ref="B8">_xll.TBXLL_AlwaysDiv0()</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C8" s="6"/>
@@ -670,11 +671,11 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B9)</f>
-        <v>=TBXLL_FailAfterSum({1,2,3})</v>
+        <v>=TBXLL_Divide(10,0)</v>
       </c>
       <c r="B9" s="3" t="e" cm="1">
-        <f t="array" ref="B9">_xll.TBXLL_FailAfterSum({1,2,3})</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B9">_xll.TBXLL_Divide(10,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C9" s="6"/>
       <c r="H9" s="7"/>
@@ -682,11 +683,11 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B10)</f>
-        <v>=TBXLL_NotFound()</v>
+        <v>=TBXLL_FailAfterSum({1,2,3})</v>
       </c>
       <c r="B10" s="3" t="e" cm="1">
-        <f t="array" ref="B10">_xll.TBXLL_NotFound()</f>
-        <v>#N/A</v>
+        <f t="array" ref="B10">_xll.TBXLL_FailAfterSum({1,2,3})</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C10" s="6"/>
       <c r="H10" s="7"/>
@@ -694,11 +695,11 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B11)</f>
-        <v>=TBXLL_SqrtChecked(-1)</v>
+        <v>=TBXLL_NotFound()</v>
       </c>
       <c r="B11" s="3" t="e" cm="1">
-        <f t="array" ref="B11">_xll.TBXLL_SqrtChecked(-1)</f>
-        <v>#NUM!</v>
+        <f t="array" ref="B11">_xll.TBXLL_NotFound()</f>
+        <v>#N/A</v>
       </c>
       <c r="C11" s="6"/>
       <c r="H11" s="7"/>
@@ -706,23 +707,23 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
-        <v>=TBXLL_TextOnly(25)</v>
+        <v>=TBXLL_SqrtChecked(-1)</v>
       </c>
       <c r="B12" s="3" t="e" cm="1">
-        <f t="array" ref="B12">_xll.TBXLL_TextOnly(25)</f>
-        <v>#VALUE!</v>
+        <f t="array" ref="B12">_xll.TBXLL_SqrtChecked(-1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="C12" s="6"/>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_Average({1,2,3})</v>
-      </c>
-      <c r="B13" s="3" cm="1">
-        <f t="array" ref="B13">_xll.TBXLL_Average({1,2,3})</f>
-        <v>2</v>
+        <f ca="1">_xlfn.FORMULATEXT(B13)</f>
+        <v>=TBXLL_TextOnly(25)</v>
+      </c>
+      <c r="B13" s="3" t="e" cm="1">
+        <f t="array" ref="B13">_xll.TBXLL_TextOnly(25)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C13" s="6"/>
       <c r="H13" s="7"/>
@@ -730,16 +731,13 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_ConditionalAdd(10,D14,"result")</v>
-      </c>
-      <c r="B14" s="3" t="str" cm="1">
-        <f t="array" ref="B14">_xll.TBXLL_ConditionalAdd(10,D14,"result")</f>
-        <v>result: 20</v>
+        <v>=TBXLL_Average({1,2,3})</v>
+      </c>
+      <c r="B14" s="3" cm="1">
+        <f t="array" ref="B14">_xll.TBXLL_Average({1,2,3})</f>
+        <v>2</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -749,68 +747,71 @@
       </c>
       <c r="B15" s="3" t="str" cm="1">
         <f t="array" ref="B15">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
-        <v>result: 10</v>
+        <v>result: 20</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_CountIf(D16:F16,"&gt;=3")</v>
-      </c>
-      <c r="B16" s="3" cm="1">
-        <f t="array" ref="B16">_xll.TBXLL_CountIf(D16:F16,"&gt;=3")</f>
-        <v>2</v>
+        <v>=TBXLL_ConditionalAdd(10,D16,"result")</v>
+      </c>
+      <c r="B16" s="3" t="str" cm="1">
+        <f t="array" ref="B16">_xll.TBXLL_ConditionalAdd(10,D16,"result")</f>
+        <v>result: 10</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
+      <c r="D16" t="b">
+        <v>0</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_Now()</v>
-      </c>
-      <c r="B17" s="4" cm="1">
-        <f t="array" aca="1" ref="B17" ca="1">_xll.TBXLL_Now()</f>
-        <v>46079.590263888887</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>=TBXLL_CountIf(D17:F17,"&gt;=3")</v>
+      </c>
+      <c r="B17" s="3" cm="1">
+        <f t="array" ref="B17">_xll.TBXLL_CountIf(D17:F17,"&gt;=3")</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=NOW()</v>
-      </c>
-      <c r="B18" s="4">
-        <f ca="1">NOW()</f>
-        <v>46079.590263888887</v>
-      </c>
-      <c r="C18" s="6"/>
+        <v>=TBXLL_Now()</v>
+      </c>
+      <c r="B18" s="4" cm="1">
+        <f t="array" aca="1" ref="B18" ca="1">_xll.TBXLL_Now()</f>
+        <v>46079.646808796293</v>
+      </c>
+      <c r="C18" s="12"/>
       <c r="H18" s="7"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B19)</f>
-        <v>=TBXLL_SqrtChecked(9)</v>
-      </c>
-      <c r="B19" s="3" cm="1">
-        <f t="array" ref="B19">_xll.TBXLL_SqrtChecked(9)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>=NOW()</v>
+      </c>
+      <c r="B19" s="4">
+        <f ca="1">NOW()</f>
+        <v>46079.646808796293</v>
       </c>
       <c r="C19" s="6"/>
       <c r="H19" s="7"/>
@@ -818,11 +819,11 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B20)</f>
-        <v>=TBXLL_TextOnly("25")</v>
-      </c>
-      <c r="B20" s="3" t="str" cm="1">
-        <f t="array" ref="B20">_xll.TBXLL_TextOnly("25")</f>
-        <v>OK: 25</v>
+        <v>=TBXLL_SqrtChecked(9)</v>
+      </c>
+      <c r="B20" s="3" cm="1">
+        <f t="array" ref="B20">_xll.TBXLL_SqrtChecked(9)</f>
+        <v>3</v>
       </c>
       <c r="C20" s="6"/>
       <c r="H20" s="7"/>
@@ -830,40 +831,40 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B21)</f>
-        <v>=TBXLL_Transpose({1;2;3})</v>
-      </c>
-      <c r="B21" s="3" cm="1">
-        <f t="array" ref="B21:D21">_xll.TBXLL_Transpose({1;2;3})</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
+        <v>=TBXLL_TextOnly("25")</v>
+      </c>
+      <c r="B21" s="3" t="str" cm="1">
+        <f t="array" ref="B21">_xll.TBXLL_TextOnly("25")</f>
+        <v>OK: 25</v>
+      </c>
+      <c r="C21" s="6"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="str">
-        <f t="shared" ref="A22:A30" ca="1" si="1">_xlfn.FORMULATEXT(B22)</f>
-        <v>=TBXLL_Upper("mike")</v>
-      </c>
-      <c r="B22" s="3" t="str" cm="1">
-        <f t="array" ref="B22">_xll.TBXLL_Upper("mike")</f>
-        <v>MIKE</v>
-      </c>
-      <c r="C22" s="6"/>
+        <f ca="1">_xlfn.FORMULATEXT(B22)</f>
+        <v>=TBXLL_Transpose({1;2;3})</v>
+      </c>
+      <c r="B22" s="3" cm="1">
+        <f t="array" ref="B22:D22">_xll.TBXLL_Transpose({1;2;3})</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_RecalcCounter()</v>
-      </c>
-      <c r="B23" s="3" cm="1">
-        <f t="array" aca="1" ref="B23" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>5</v>
+        <f t="shared" ref="A23:A31" ca="1" si="1">_xlfn.FORMULATEXT(B23)</f>
+        <v>=TBXLL_Upper("mike")</v>
+      </c>
+      <c r="B23" s="3" t="str" cm="1">
+        <f t="array" ref="B23">_xll.TBXLL_Upper("mike")</f>
+        <v>MIKE</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
@@ -871,11 +872,11 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_SumArray({1,2,3})</v>
+        <v>=TBXLL_RecalcCounter()</v>
       </c>
       <c r="B24" s="3" cm="1">
-        <f t="array" ref="B24">_xll.TBXLL_SumArray({1,2,3})</f>
-        <v>6</v>
+        <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_RecalcCounter()</f>
+        <v>8</v>
       </c>
       <c r="C24" s="6"/>
       <c r="H24" s="7"/>
@@ -883,10 +884,10 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_SumArray2({1,2,3})</v>
+        <v>=TBXLL_SumArray({1,2,3})</v>
       </c>
       <c r="B25" s="3" cm="1">
-        <f t="array" ref="B25">_xll.TBXLL_SumArray2({1,2,3})</f>
+        <f t="array" ref="B25">_xll.TBXLL_SumArray({1,2,3})</f>
         <v>6</v>
       </c>
       <c r="C25" s="6"/>
@@ -895,65 +896,65 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>{=TBXLL_Join(D26:F27,TRUE)}</v>
-      </c>
-      <c r="B26" s="3" t="str">
-        <f t="array" ref="B26">_xll.TBXLL_Join(D26:F27,TRUE)</f>
-        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
+        <v>=TBXLL_SumArray2({1,2,3})</v>
+      </c>
+      <c r="B26" s="3" cm="1">
+        <f t="array" ref="B26">_xll.TBXLL_SumArray2({1,2,3})</f>
+        <v>6</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2</v>
-      </c>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join(D26:F27,FALSE)</v>
-      </c>
-      <c r="B27" s="3" t="str" cm="1">
-        <f t="array" ref="B27">_xll.TBXLL_Join(D26:F27,FALSE)</f>
-        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
+        <v>{=TBXLL_Join(D27:F28,TRUE)}</v>
+      </c>
+      <c r="B27" s="3" t="str">
+        <f t="array" ref="B27">_xll.TBXLL_Join(D27:F28,TRUE)</f>
+        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
+        <v>=TBXLL_Join(D27:F28,FALSE)</v>
       </c>
       <c r="B28" s="3" t="str" cm="1">
-        <f t="array" ref="B28">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
-        <v>11,21,12,22,13,23</v>
+        <f t="array" ref="B28">_xll.TBXLL_Join(D27:F28,FALSE)</f>
+        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
       </c>
       <c r="C28" s="6"/>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
+        <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
       </c>
       <c r="B29" s="3" t="str" cm="1">
-        <f t="array" ref="B29">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
-        <v>11,12,13,21,22,23</v>
+        <f t="array" ref="B29">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
+        <v>11,21,12,22,13,23</v>
       </c>
       <c r="C29" s="6"/>
       <c r="H29" s="7"/>
@@ -961,10 +962,10 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23})</v>
+        <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
       </c>
       <c r="B30" s="3" t="str" cm="1">
-        <f t="array" ref="B30">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
+        <f t="array" ref="B30">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
         <v>11,12,13,21,22,23</v>
       </c>
       <c r="C30" s="6"/>
@@ -972,76 +973,76 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="str">
-        <f t="shared" ref="A31:A39" ca="1" si="2">_xlfn.FORMULATEXT(B31)</f>
-        <v>=TBXLL_CellValue(testNamedRange)</v>
-      </c>
-      <c r="B31" s="3" t="b" cm="1">
-        <f t="array" ref="B31">_xll.TBXLL_CellValue(testNamedRange)</f>
-        <v>1</v>
-      </c>
-      <c r="C31" s="6" t="b">
-        <v>1</v>
-      </c>
+        <f t="shared" ca="1" si="1"/>
+        <v>=TBXLL_Join({11,12,13;21,22,23})</v>
+      </c>
+      <c r="B31" s="3" t="str" cm="1">
+        <f t="array" ref="B31">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
+        <v>11,12,13,21,22,23</v>
+      </c>
+      <c r="C31" s="6"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_CellValue(C32)</v>
-      </c>
-      <c r="B32" s="3" cm="1">
-        <f t="array" ref="B32">_xll.TBXLL_CellValue(C32)</f>
-        <v>99</v>
-      </c>
-      <c r="C32" s="6">
-        <v>99</v>
+        <f t="shared" ref="A32:A41" ca="1" si="2">_xlfn.FORMULATEXT(B32)</f>
+        <v>=TBXLL_CellValue(testNamedRange)</v>
+      </c>
+      <c r="B32" s="3" t="b" cm="1">
+        <f t="array" ref="B32">_xll.TBXLL_CellValue(testNamedRange)</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="b">
+        <v>1</v>
       </c>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_SheetName(D33)</v>
-      </c>
-      <c r="B33" s="3" t="str" cm="1">
-        <f t="array" ref="B33">_xll.TBXLL_SheetName(D33)</f>
-        <v>[tests.xlsx]Sheet1</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>=TBXLL_CellValue(C33)</v>
+      </c>
+      <c r="B33" s="3" cm="1">
+        <f t="array" ref="B33">_xll.TBXLL_CellValue(C33)</f>
+        <v>99</v>
+      </c>
+      <c r="C33" s="6">
+        <v>99</v>
+      </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B34)</f>
-        <v>=TBXLL_CellAddress(C34)</v>
-      </c>
-      <c r="B34" s="13" t="str" cm="1">
-        <f t="array" ref="B34">_xll.TBXLL_CellAddress(C34)</f>
-        <v>$C$34</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_SheetName(D34)</v>
+      </c>
+      <c r="B34" s="3" t="str" cm="1">
+        <f t="array" ref="B34">_xll.TBXLL_SheetName(D34)</f>
+        <v>[tests.xlsx]Sheet1</v>
       </c>
       <c r="C34" s="6"/>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_IsEmptyCell(C35)</v>
-      </c>
-      <c r="B35" s="3" t="b" cm="1">
-        <f t="array" ref="B35">_xll.TBXLL_IsEmptyCell(C35)</f>
-        <v>1</v>
+        <f ca="1">_xlfn.FORMULATEXT(B35)</f>
+        <v>=TBXLL_CellAddress(B11)</v>
+      </c>
+      <c r="B35" s="13" t="str" cm="1">
+        <f t="array" ref="B35">_xll.TBXLL_CellAddress(B11)</f>
+        <v>$B$11</v>
       </c>
       <c r="C35" s="6"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_TestMissing(3.6)</v>
-      </c>
-      <c r="B36" s="3" cm="1">
-        <f t="array" ref="B36">_xll.TBXLL_TestMissing(3.6)</f>
-        <v>4</v>
+        <f ca="1">_xlfn.FORMULATEXT(B36)</f>
+        <v>=TBXLL_CellAddress(Sheet2!B11)</v>
+      </c>
+      <c r="B36" s="13" t="str" cm="1">
+        <f t="array" ref="B36">_xll.TBXLL_CellAddress(Sheet2!B11)</f>
+        <v>$B$11</v>
       </c>
       <c r="C36" s="6"/>
       <c r="H36" s="7"/>
@@ -1049,49 +1050,39 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
-      </c>
-      <c r="B37" s="3">
-        <f t="array" ref="B37:B39">_xll.TBXLL_MultiplyArrays(D37:D39,E37:E39)</f>
-        <v>2</v>
+        <v>=TBXLL_IsEmptyCell(C37)</v>
+      </c>
+      <c r="B37" s="3" t="b" cm="1">
+        <f t="array" ref="B37">_xll.TBXLL_IsEmptyCell(C37)</f>
+        <v>1</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
-      </c>
-      <c r="B38" s="3">
-        <v>20</v>
+        <v>=TBXLL_TestMissing(3.6)</v>
+      </c>
+      <c r="B38" s="3" cm="1">
+        <f t="array" ref="B38">_xll.TBXLL_TestMissing(3.6)</f>
+        <v>4</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D37:D39,E37:E39)}</v>
+        <v>{=TBXLL_MultiplyArrays(D39:D41,E39:E41)}</v>
       </c>
       <c r="B39" s="3">
-        <v>4</v>
+        <f t="array" ref="B39:B41">_xll.TBXLL_MultiplyArrays(D39:D41,E39:E41)</f>
+        <v>2</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1100,56 +1091,66 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
-        <f t="shared" ref="A40:A47" ca="1" si="3">_xlfn.FORMULATEXT(B40)</f>
-        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
-      </c>
-      <c r="B40" s="5">
-        <f t="array" ref="B40:E40">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="C40" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D40" s="9">
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="E40" s="9">
-        <v>0.46296296296296297</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>{=TBXLL_MultiplyArrays(D39:D41,E39:E41)}</v>
+      </c>
+      <c r="B40" s="3">
+        <v>20</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>{=TBXLL_MultiplyArrays(D39:D41,E39:E41)}</v>
+      </c>
+      <c r="B41" s="3">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3" t="str">
+        <f t="shared" ref="A42:A49" ca="1" si="3">_xlfn.FORMULATEXT(B42)</f>
+        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
+      </c>
+      <c r="B42" s="5">
+        <f t="array" ref="B42:E42">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C42" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.46296296296296297</v>
+      </c>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_SpeedSafe(100)</v>
       </c>
-      <c r="B41" s="3" cm="1">
-        <f t="array" ref="B41">_xll.TBXLL_SpeedSafe(100)</f>
+      <c r="B43" s="3" cm="1">
+        <f t="array" ref="B43">_xll.TBXLL_SpeedSafe(100)</f>
         <v>66671645.919710793</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SpeedUnsafe(100)</v>
-      </c>
-      <c r="B42" s="3" cm="1">
-        <f t="array" ref="B42">_xll.TBXLL_SpeedUnsafe(100)</f>
-        <v>66671645.919710793</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="str">
-        <f t="shared" ref="A43" ca="1" si="4">_xlfn.FORMULATEXT(B43)</f>
-        <v>=TBXLL_Timestamp()</v>
-      </c>
-      <c r="B43" s="16" cm="1">
-        <f t="array" aca="1" ref="B43" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>93389.402963100001</v>
       </c>
       <c r="C43" s="6"/>
       <c r="H43" s="7"/>
@@ -1157,34 +1158,35 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_NumberName(9)</v>
-      </c>
-      <c r="B44" s="3" t="str" cm="1">
-        <f t="array" ref="B44">_xll.TBXLL_NumberName(9)</f>
-        <v>Nine</v>
+        <v>=TBXLL_SpeedUnsafe(100)</v>
+      </c>
+      <c r="B44" s="3" cm="1">
+        <f t="array" ref="B44">_xll.TBXLL_SpeedUnsafe(100)</f>
+        <v>66671645.919710793</v>
       </c>
       <c r="C44" s="6"/>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_RomanNumeral(9)</v>
-      </c>
-      <c r="B45" s="3" t="str" cm="1">
-        <f t="array" ref="B45">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>IX</v>
-      </c>
+        <f t="shared" ref="A45" ca="1" si="4">_xlfn.FORMULATEXT(B45)</f>
+        <v>=TBXLL_Timestamp()</v>
+      </c>
+      <c r="B45" s="16" cm="1">
+        <f t="array" aca="1" ref="B45" ca="1">_xll.TBXLL_Timestamp()</f>
+        <v>98273.729908699999</v>
+      </c>
+      <c r="C45" s="6"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_AddDays(NOW(),7)</v>
-      </c>
-      <c r="B46" s="14" cm="1">
-        <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46086.590263888887</v>
+        <v>=TBXLL_NumberName(9)</v>
+      </c>
+      <c r="B46" s="3" t="str" cm="1">
+        <f t="array" ref="B46">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
       </c>
       <c r="C46" s="6"/>
       <c r="H46" s="7"/>
@@ -1192,22 +1194,45 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_RomanNumeral(9)</v>
+      </c>
+      <c r="B47" s="3" t="str" cm="1">
+        <f t="array" ref="B47">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_AddDays(NOW(),7)</v>
+      </c>
+      <c r="B48" s="14" cm="1">
+        <f t="array" aca="1" ref="B48" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
+        <v>46086.646808796293</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_FormatArray({1,2,3},"item")</v>
       </c>
-      <c r="B47" s="13" t="str" cm="1">
-        <f t="array" ref="B47:D47">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
+      <c r="B49" s="13" t="str" cm="1">
+        <f t="array" ref="B49:D49">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
         <v>item_1</v>
       </c>
-      <c r="C47" s="15" t="str">
+      <c r="C49" s="15" t="str">
         <v>item_2</v>
       </c>
-      <c r="D47" s="10" t="str">
+      <c r="D49" s="10" t="str">
         <v>item_3</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1215,4 +1240,27 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50C973F-FAC2-42BC-8E9A-C340D5BF91FB}">
+  <dimension ref="D5:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F51E1A-425D-42CB-B31E-99629C0BFABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A2D1F-EF9A-4A3E-B022-401C2E729EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2298" yWindow="132" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2694" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="udf tests" sheetId="1" r:id="rId1"/>
@@ -546,11 +546,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -798,7 +798,7 @@
       </c>
       <c r="B18" s="4" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">_xll.TBXLL_Now()</f>
-        <v>46079.646808796293</v>
+        <v>46079.69277303241</v>
       </c>
       <c r="C18" s="12"/>
       <c r="H18" s="7"/>
@@ -811,7 +811,7 @@
       </c>
       <c r="B19" s="4">
         <f ca="1">NOW()</f>
-        <v>46079.646808796293</v>
+        <v>46079.69277303241</v>
       </c>
       <c r="C19" s="6"/>
       <c r="H19" s="7"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="B24" s="3" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C24" s="6"/>
       <c r="H24" s="7"/>
@@ -985,7 +985,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="str">
-        <f t="shared" ref="A32:A41" ca="1" si="2">_xlfn.FORMULATEXT(B32)</f>
+        <f t="shared" ref="A32:A42" ca="1" si="2">_xlfn.FORMULATEXT(B32)</f>
         <v>=TBXLL_CellValue(testNamedRange)</v>
       </c>
       <c r="B32" s="3" t="b" cm="1">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="B34" s="3" t="str" cm="1">
         <f t="array" ref="B34">_xll.TBXLL_SheetName(D34)</f>
-        <v>[tests.xlsx]Sheet1</v>
+        <v>[tests.xlsx]udf tests</v>
       </c>
       <c r="C34" s="6"/>
       <c r="H34" s="7"/>
@@ -1026,11 +1026,11 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B35)</f>
-        <v>=TBXLL_CellAddress(B11)</v>
+        <v>=TBXLL_CellAddress(C35)</v>
       </c>
       <c r="B35" s="13" t="str" cm="1">
-        <f t="array" ref="B35">_xll.TBXLL_CellAddress(B11)</f>
-        <v>$B$11</v>
+        <f t="array" ref="B35">_xll.TBXLL_CellAddress(C35)</f>
+        <v>$C$35</v>
       </c>
       <c r="C35" s="6"/>
       <c r="H35" s="7"/>
@@ -1038,23 +1038,23 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B36)</f>
-        <v>=TBXLL_CellAddress(Sheet2!B11)</v>
+        <v>=TBXLL_CellAddress(Sheet2!C35)</v>
       </c>
       <c r="B36" s="13" t="str" cm="1">
-        <f t="array" ref="B36">_xll.TBXLL_CellAddress(Sheet2!B11)</f>
-        <v>$B$11</v>
+        <f t="array" ref="B36">_xll.TBXLL_CellAddress(Sheet2!C35)</f>
+        <v>$C$35</v>
       </c>
       <c r="C36" s="6"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_IsEmptyCell(C37)</v>
-      </c>
-      <c r="B37" s="3" t="b" cm="1">
-        <f t="array" ref="B37">_xll.TBXLL_IsEmptyCell(C37)</f>
-        <v>1</v>
+        <f ca="1">_xlfn.FORMULATEXT(B37)</f>
+        <v>=TBXLL_CellAddress_Hidden(C35)</v>
+      </c>
+      <c r="B37" s="13" t="str" cm="1">
+        <f t="array" ref="B37">_xll.TBXLL_CellAddress_Hidden(C35)</f>
+        <v>$C$35</v>
       </c>
       <c r="C37" s="6"/>
       <c r="H37" s="7"/>
@@ -1062,11 +1062,11 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_TestMissing(3.6)</v>
-      </c>
-      <c r="B38" s="3" cm="1">
-        <f t="array" ref="B38">_xll.TBXLL_TestMissing(3.6)</f>
-        <v>4</v>
+        <v>=TBXLL_IsEmptyCell(C38)</v>
+      </c>
+      <c r="B38" s="3" t="b" cm="1">
+        <f t="array" ref="B38">_xll.TBXLL_IsEmptyCell(C38)</f>
+        <v>1</v>
       </c>
       <c r="C38" s="6"/>
       <c r="H38" s="7"/>
@@ -1074,94 +1074,94 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D39:D41,E39:E41)}</v>
-      </c>
-      <c r="B39" s="3">
-        <f t="array" ref="B39:B41">_xll.TBXLL_MultiplyArrays(D39:D41,E39:E41)</f>
-        <v>2</v>
+        <v>=TBXLL_TestMissing(3.6)</v>
+      </c>
+      <c r="B39" s="3" cm="1">
+        <f t="array" ref="B39">_xll.TBXLL_TestMissing(3.6)</f>
+        <v>4</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D39:D41,E39:E41)}</v>
+        <v>{=TBXLL_MultiplyArrays(D40:D42,E40:E42)}</v>
       </c>
       <c r="B40" s="3">
-        <v>20</v>
+        <f t="array" ref="B40:B42">_xll.TBXLL_MultiplyArrays(D40:D42,E40:E42)</f>
+        <v>2</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D39:D41,E39:E41)}</v>
+        <v>{=TBXLL_MultiplyArrays(D40:D42,E40:E42)}</v>
       </c>
       <c r="B41" s="3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="str">
-        <f t="shared" ref="A42:A49" ca="1" si="3">_xlfn.FORMULATEXT(B42)</f>
-        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
-      </c>
-      <c r="B42" s="5">
-        <f t="array" ref="B42:E42">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="C42" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D42" s="9">
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="E42" s="9">
-        <v>0.46296296296296297</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>{=TBXLL_MultiplyArrays(D40:D42,E40:E42)}</v>
+      </c>
+      <c r="B42" s="3">
+        <v>4</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
       </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SpeedSafe(100)</v>
-      </c>
-      <c r="B43" s="3" cm="1">
-        <f t="array" ref="B43">_xll.TBXLL_SpeedSafe(100)</f>
-        <v>66671645.919710793</v>
-      </c>
-      <c r="C43" s="6"/>
+        <f t="shared" ref="A43:A50" ca="1" si="3">_xlfn.FORMULATEXT(B43)</f>
+        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
+      </c>
+      <c r="B43" s="5">
+        <f t="array" ref="B43:E43">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0.46296296296296297</v>
+      </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SpeedUnsafe(100)</v>
+        <v>=TBXLL_SpeedSafe(100)</v>
       </c>
       <c r="B44" s="3" cm="1">
-        <f t="array" ref="B44">_xll.TBXLL_SpeedUnsafe(100)</f>
+        <f t="array" ref="B44">_xll.TBXLL_SpeedSafe(100)</f>
         <v>66671645.919710793</v>
       </c>
       <c r="C44" s="6"/>
@@ -1169,24 +1169,24 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
-        <f t="shared" ref="A45" ca="1" si="4">_xlfn.FORMULATEXT(B45)</f>
-        <v>=TBXLL_Timestamp()</v>
-      </c>
-      <c r="B45" s="16" cm="1">
-        <f t="array" aca="1" ref="B45" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>98273.729908699999</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_SpeedUnsafe(100)</v>
+      </c>
+      <c r="B45" s="3" cm="1">
+        <f t="array" ref="B45">_xll.TBXLL_SpeedUnsafe(100)</f>
+        <v>66671645.919710793</v>
       </c>
       <c r="C45" s="6"/>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_NumberName(9)</v>
-      </c>
-      <c r="B46" s="3" t="str" cm="1">
-        <f t="array" ref="B46">_xll.TBXLL_NumberName(9)</f>
-        <v>Nine</v>
+        <f t="shared" ref="A46" ca="1" si="4">_xlfn.FORMULATEXT(B46)</f>
+        <v>=TBXLL_Timestamp()</v>
+      </c>
+      <c r="B46" s="16" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_Timestamp()</f>
+        <v>102245.04100680001</v>
       </c>
       <c r="C46" s="6"/>
       <c r="H46" s="7"/>
@@ -1194,45 +1194,60 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_RomanNumeral(9)</v>
+        <v>=TBXLL_NumberName(9)</v>
       </c>
       <c r="B47" s="3" t="str" cm="1">
-        <f t="array" ref="B47">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>IX</v>
-      </c>
+        <f t="array" ref="B47">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
+      </c>
+      <c r="C47" s="6"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_AddDays(NOW(),7)</v>
-      </c>
-      <c r="B48" s="14" cm="1">
-        <f t="array" aca="1" ref="B48" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46086.646808796293</v>
-      </c>
-      <c r="C48" s="6"/>
+        <v>=TBXLL_RomanNumeral(9)</v>
+      </c>
+      <c r="B48" s="3" t="str" cm="1">
+        <f t="array" ref="B48">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
+      </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_AddDays(NOW(),7)</v>
+      </c>
+      <c r="B49" s="14" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
+        <v>46086.69277303241</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>=TBXLL_FormatArray({1,2,3},"item")</v>
       </c>
-      <c r="B49" s="13" t="str" cm="1">
-        <f t="array" ref="B49:D49">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
+      <c r="B50" s="13" t="str" cm="1">
+        <f t="array" ref="B50:D50">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
         <v>item_1</v>
       </c>
-      <c r="C49" s="15" t="str">
+      <c r="C50" s="15" t="str">
         <v>item_2</v>
       </c>
-      <c r="D49" s="10" t="str">
+      <c r="D50" s="10" t="str">
         <v>item_3</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A2D1F-EF9A-4A3E-B022-401C2E729EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCD026-50B3-4ADC-A293-021A0761D13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2694" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -265,6 +265,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -798,7 +799,7 @@
       </c>
       <c r="B18" s="4" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">_xll.TBXLL_Now()</f>
-        <v>46079.69277303241</v>
+        <v>46079.701062268519</v>
       </c>
       <c r="C18" s="12"/>
       <c r="H18" s="7"/>
@@ -811,7 +812,7 @@
       </c>
       <c r="B19" s="4">
         <f ca="1">NOW()</f>
-        <v>46079.69277303241</v>
+        <v>46079.701062268519</v>
       </c>
       <c r="C19" s="6"/>
       <c r="H19" s="7"/>
@@ -876,7 +877,7 @@
       </c>
       <c r="B24" s="3" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6"/>
       <c r="H24" s="7"/>
@@ -1052,9 +1053,9 @@
         <f ca="1">_xlfn.FORMULATEXT(B37)</f>
         <v>=TBXLL_CellAddress_Hidden(C35)</v>
       </c>
-      <c r="B37" s="13" t="str" cm="1">
-        <f t="array" ref="B37">_xll.TBXLL_CellAddress_Hidden(C35)</f>
-        <v>$C$35</v>
+      <c r="B37" s="13" t="e" cm="1">
+        <f t="array" aca="1" ref="B37" ca="1">TBXLL_CellAddress_Hidden(C35)</f>
+        <v>#NAME?</v>
       </c>
       <c r="C37" s="6"/>
       <c r="H37" s="7"/>
@@ -1186,7 +1187,7 @@
       </c>
       <c r="B46" s="16" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>102245.04100680001</v>
+        <v>102961.2318089</v>
       </c>
       <c r="C46" s="6"/>
       <c r="H46" s="7"/>
@@ -1221,7 +1222,7 @@
       </c>
       <c r="B49" s="14" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46086.69277303241</v>
+        <v>46086.701062268519</v>
       </c>
       <c r="C49" s="6"/>
       <c r="H49" s="7"/>
@@ -1247,7 +1248,7 @@
       <c r="H50" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="13"/>
+      <c r="B53" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCD026-50B3-4ADC-A293-021A0761D13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4204EC-F226-4E4B-84ED-D50E18BBC38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2694" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="udf tests" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -265,7 +265,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,11 +546,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -799,7 +798,7 @@
       </c>
       <c r="B18" s="4" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">_xll.TBXLL_Now()</f>
-        <v>46079.701062268519</v>
+        <v>46080.28896377315</v>
       </c>
       <c r="C18" s="12"/>
       <c r="H18" s="7"/>
@@ -812,7 +811,7 @@
       </c>
       <c r="B19" s="4">
         <f ca="1">NOW()</f>
-        <v>46079.701062268519</v>
+        <v>46080.28896377315</v>
       </c>
       <c r="C19" s="6"/>
       <c r="H19" s="7"/>
@@ -877,7 +876,7 @@
       </c>
       <c r="B24" s="3" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="6"/>
       <c r="H24" s="7"/>
@@ -1053,11 +1052,12 @@
         <f ca="1">_xlfn.FORMULATEXT(B37)</f>
         <v>=TBXLL_CellAddress_Hidden(C35)</v>
       </c>
-      <c r="B37" s="13" t="e" cm="1">
-        <f t="array" aca="1" ref="B37" ca="1">TBXLL_CellAddress_Hidden(C35)</f>
-        <v>#NAME?</v>
+      <c r="B37" s="13" t="str" cm="1">
+        <f t="array" ref="B37">_xll.TBXLL_CellAddress_Hidden(C35)</f>
+        <v>$C$35</v>
       </c>
       <c r="C37" s="6"/>
+      <c r="D37" s="13"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B46" s="16" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>102961.2318089</v>
+        <v>153756.47553669999</v>
       </c>
       <c r="C46" s="6"/>
       <c r="H46" s="7"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B49" s="14" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46086.701062268519</v>
+        <v>46087.28896377315</v>
       </c>
       <c r="C49" s="6"/>
       <c r="H49" s="7"/>
@@ -1246,9 +1246,6 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="11"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4204EC-F226-4E4B-84ED-D50E18BBC38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7BE7BE-5ECD-46AA-B5DE-326D8600143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1464" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="testNamedRange" localSheetId="0">'udf tests'!$C$32</definedName>
+    <definedName name="testNamedRange" localSheetId="0">'udf tests'!$C$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -546,11 +546,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -592,7 +592,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A19" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
+        <f t="shared" ref="A3:A22" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
         <v>=TBXLL_Multiply("10","2")</v>
       </c>
       <c r="B3" s="3" cm="1">
@@ -635,71 +635,71 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_AddOptional(1,2)</v>
+        <v>=TBXLL_MultiplyQ(10,2)</v>
       </c>
       <c r="B6" s="3" cm="1">
-        <f t="array" ref="B6">_xll.TBXLL_AddOptional(1,2)</f>
-        <v>3</v>
+        <f t="array" ref="B6">_xll.TBXLL_MultiplyQ(10,2)</f>
+        <v>20</v>
       </c>
       <c r="C6" s="6"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="str">
+        <f t="shared" ref="A7:A8" ca="1" si="1">_xlfn.FORMULATEXT(B7)</f>
+        <v>=TBXLL_MultiplyQ(D4,E4)</v>
+      </c>
+      <c r="B7" s="3" cm="1">
+        <f t="array" ref="B7">_xll.TBXLL_MultiplyQ(D4,E4)</f>
+        <v>20</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TBXLL_MultiplyQ(Sheet2!D5,Sheet2!E5)</v>
+      </c>
+      <c r="B8" s="3" cm="1">
+        <f t="array" ref="B8">_xll.TBXLL_MultiplyQ(Sheet2!D5,Sheet2!E5)</f>
+        <v>20</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=TBXLL_AddOptional(1,2)</v>
+      </c>
+      <c r="B9" s="3" cm="1">
+        <f t="array" ref="B9">_xll.TBXLL_AddOptional(1,2)</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2,3)</v>
       </c>
-      <c r="B7" s="3" cm="1">
-        <f t="array" ref="B7">_xll.TBXLL_AddOptional(1,2,3)</f>
+      <c r="B10" s="3" cm="1">
+        <f t="array" ref="B10">_xll.TBXLL_AddOptional(1,2,3)</f>
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="str">
+      <c r="C10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AlwaysDiv0()</v>
       </c>
-      <c r="B8" s="3" t="e" cm="1">
-        <f t="array" ref="B8">_xll.TBXLL_AlwaysDiv0()</f>
+      <c r="B11" s="3" t="e" cm="1">
+        <f t="array" ref="B11">_xll.TBXLL_AlwaysDiv0()</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B9)</f>
-        <v>=TBXLL_Divide(10,0)</v>
-      </c>
-      <c r="B9" s="3" t="e" cm="1">
-        <f t="array" ref="B9">_xll.TBXLL_Divide(10,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B10)</f>
-        <v>=TBXLL_FailAfterSum({1,2,3})</v>
-      </c>
-      <c r="B10" s="3" t="e" cm="1">
-        <f t="array" ref="B10">_xll.TBXLL_FailAfterSum({1,2,3})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B11)</f>
-        <v>=TBXLL_NotFound()</v>
-      </c>
-      <c r="B11" s="3" t="e" cm="1">
-        <f t="array" ref="B11">_xll.TBXLL_NotFound()</f>
-        <v>#N/A</v>
       </c>
       <c r="C11" s="6"/>
       <c r="H11" s="7"/>
@@ -707,11 +707,11 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
-        <v>=TBXLL_SqrtChecked(-1)</v>
+        <v>=TBXLL_Divide(10,0)</v>
       </c>
       <c r="B12" s="3" t="e" cm="1">
-        <f t="array" ref="B12">_xll.TBXLL_SqrtChecked(-1)</f>
-        <v>#NUM!</v>
+        <f t="array" ref="B12">_xll.TBXLL_Divide(10,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C12" s="6"/>
       <c r="H12" s="7"/>
@@ -719,10 +719,10 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B13)</f>
-        <v>=TBXLL_TextOnly(25)</v>
+        <v>=TBXLL_FailAfterSum({1,2,3})</v>
       </c>
       <c r="B13" s="3" t="e" cm="1">
-        <f t="array" ref="B13">_xll.TBXLL_TextOnly(25)</f>
+        <f t="array" ref="B13">_xll.TBXLL_FailAfterSum({1,2,3})</f>
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="6"/>
@@ -730,522 +730,558 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_Average({1,2,3})</v>
-      </c>
-      <c r="B14" s="3" cm="1">
-        <f t="array" ref="B14">_xll.TBXLL_Average({1,2,3})</f>
-        <v>2</v>
+        <f ca="1">_xlfn.FORMULATEXT(B14)</f>
+        <v>=TBXLL_NotFound()</v>
+      </c>
+      <c r="B14" s="3" t="e" cm="1">
+        <f t="array" ref="B14">_xll.TBXLL_NotFound()</f>
+        <v>#N/A</v>
       </c>
       <c r="C14" s="6"/>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_ConditionalAdd(10,D15,"result")</v>
-      </c>
-      <c r="B15" s="3" t="str" cm="1">
-        <f t="array" ref="B15">_xll.TBXLL_ConditionalAdd(10,D15,"result")</f>
-        <v>result: 20</v>
+        <f ca="1">_xlfn.FORMULATEXT(B15)</f>
+        <v>=TBXLL_SqrtChecked(-1)</v>
+      </c>
+      <c r="B15" s="3" t="e" cm="1">
+        <f t="array" ref="B15">_xll.TBXLL_SqrtChecked(-1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_ConditionalAdd(10,D16,"result")</v>
-      </c>
-      <c r="B16" s="3" t="str" cm="1">
-        <f t="array" ref="B16">_xll.TBXLL_ConditionalAdd(10,D16,"result")</f>
-        <v>result: 10</v>
+        <f ca="1">_xlfn.FORMULATEXT(B16)</f>
+        <v>=TBXLL_TextOnly(25)</v>
+      </c>
+      <c r="B16" s="3" t="e" cm="1">
+        <f t="array" ref="B16">_xll.TBXLL_TextOnly(25)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_CountIf(D17:F17,"&gt;=3")</v>
+        <v>=TBXLL_Average({1,2,3})</v>
       </c>
       <c r="B17" s="3" cm="1">
-        <f t="array" ref="B17">_xll.TBXLL_CountIf(D17:F17,"&gt;=3")</f>
+        <f t="array" ref="B17">_xll.TBXLL_Average({1,2,3})</f>
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_Now()</v>
-      </c>
-      <c r="B18" s="4" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">_xll.TBXLL_Now()</f>
-        <v>46080.28896377315</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>=TBXLL_ConditionalAdd(10,D18,"result")</v>
+      </c>
+      <c r="B18" s="3" t="str" cm="1">
+        <f t="array" ref="B18">_xll.TBXLL_ConditionalAdd(10,D18,"result")</f>
+        <v>result: 20</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=NOW()</v>
-      </c>
-      <c r="B19" s="4">
-        <f ca="1">NOW()</f>
-        <v>46080.28896377315</v>
+        <v>=TBXLL_ConditionalAdd(10,D19,"result")</v>
+      </c>
+      <c r="B19" s="3" t="str" cm="1">
+        <f t="array" ref="B19">_xll.TBXLL_ConditionalAdd(10,D19,"result")</f>
+        <v>result: 10</v>
       </c>
       <c r="C19" s="6"/>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B20)</f>
-        <v>=TBXLL_SqrtChecked(9)</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>=TBXLL_CountIf(D20:F20,"&gt;=3")</v>
       </c>
       <c r="B20" s="3" cm="1">
-        <f t="array" ref="B20">_xll.TBXLL_SqrtChecked(9)</f>
+        <f t="array" ref="B20">_xll.TBXLL_CountIf(D20:F20,"&gt;=3")</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="F20">
+        <v>4</v>
+      </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B21)</f>
-        <v>=TBXLL_TextOnly("25")</v>
-      </c>
-      <c r="B21" s="3" t="str" cm="1">
-        <f t="array" ref="B21">_xll.TBXLL_TextOnly("25")</f>
-        <v>OK: 25</v>
-      </c>
-      <c r="C21" s="6"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>=TBXLL_Now()</v>
+      </c>
+      <c r="B21" s="4" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">_xll.TBXLL_Now()</f>
+        <v>46080.42014884259</v>
+      </c>
+      <c r="C21" s="12"/>
       <c r="H21" s="7"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B22)</f>
-        <v>=TBXLL_Transpose({1;2;3})</v>
-      </c>
-      <c r="B22" s="3" cm="1">
-        <f t="array" ref="B22:D22">_xll.TBXLL_Transpose({1;2;3})</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
+        <f t="shared" ca="1" si="0"/>
+        <v>=NOW()</v>
+      </c>
+      <c r="B22" s="4">
+        <f ca="1">NOW()</f>
+        <v>46080.42014884259</v>
+      </c>
+      <c r="C22" s="6"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="str">
-        <f t="shared" ref="A23:A31" ca="1" si="1">_xlfn.FORMULATEXT(B23)</f>
-        <v>=TBXLL_Upper("mike")</v>
-      </c>
-      <c r="B23" s="3" t="str" cm="1">
-        <f t="array" ref="B23">_xll.TBXLL_Upper("mike")</f>
-        <v>MIKE</v>
+        <f ca="1">_xlfn.FORMULATEXT(B23)</f>
+        <v>=TBXLL_SqrtChecked(9)</v>
+      </c>
+      <c r="B23" s="3" cm="1">
+        <f t="array" ref="B23">_xll.TBXLL_SqrtChecked(9)</f>
+        <v>3</v>
       </c>
       <c r="C23" s="6"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_RecalcCounter()</v>
-      </c>
-      <c r="B24" s="3" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>2</v>
+        <f ca="1">_xlfn.FORMULATEXT(B24)</f>
+        <v>=TBXLL_TextOnly("25")</v>
+      </c>
+      <c r="B24" s="3" t="str" cm="1">
+        <f t="array" ref="B24">_xll.TBXLL_TextOnly("25")</f>
+        <v>OK: 25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_SumArray({1,2,3})</v>
+        <f ca="1">_xlfn.FORMULATEXT(B25)</f>
+        <v>=TBXLL_Transpose({1;2;3})</v>
       </c>
       <c r="B25" s="3" cm="1">
-        <f t="array" ref="B25">_xll.TBXLL_SumArray({1,2,3})</f>
-        <v>6</v>
-      </c>
-      <c r="C25" s="6"/>
+        <f t="array" ref="B25:D25">_xll.TBXLL_Transpose({1;2;3})</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_SumArray2({1,2,3})</v>
-      </c>
-      <c r="B26" s="3" cm="1">
-        <f t="array" ref="B26">_xll.TBXLL_SumArray2({1,2,3})</f>
-        <v>6</v>
+        <f t="shared" ref="A26:A34" ca="1" si="2">_xlfn.FORMULATEXT(B26)</f>
+        <v>=TBXLL_Upper("mike")</v>
+      </c>
+      <c r="B26" s="3" t="str" cm="1">
+        <f t="array" ref="B26">_xll.TBXLL_Upper("mike")</f>
+        <v>MIKE</v>
       </c>
       <c r="C26" s="6"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>{=TBXLL_Join(D27:F28,TRUE)}</v>
-      </c>
-      <c r="B27" s="3" t="str">
-        <f t="array" ref="B27">_xll.TBXLL_Join(D27:F28,TRUE)</f>
-        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_RecalcCounter()</v>
+      </c>
+      <c r="B27" s="3" cm="1">
+        <f t="array" aca="1" ref="B27" ca="1">_xll.TBXLL_RecalcCounter()</f>
+        <v>9</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join(D27:F28,FALSE)</v>
-      </c>
-      <c r="B28" s="3" t="str" cm="1">
-        <f t="array" ref="B28">_xll.TBXLL_Join(D27:F28,FALSE)</f>
-        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_SumArray({1,2,3})</v>
+      </c>
+      <c r="B28" s="3" cm="1">
+        <f t="array" ref="B28">_xll.TBXLL_SumArray({1,2,3})</f>
+        <v>6</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
-      </c>
-      <c r="B29" s="3" t="str" cm="1">
-        <f t="array" ref="B29">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
-        <v>11,21,12,22,13,23</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_SumArray2({1,2,3})</v>
+      </c>
+      <c r="B29" s="3" cm="1">
+        <f t="array" ref="B29">_xll.TBXLL_SumArray2({1,2,3})</f>
+        <v>6</v>
       </c>
       <c r="C29" s="6"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
-      </c>
-      <c r="B30" s="3" t="str" cm="1">
-        <f t="array" ref="B30">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
-        <v>11,12,13,21,22,23</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>{=TBXLL_Join(D30:F31,TRUE)}</v>
+      </c>
+      <c r="B30" s="3" t="str">
+        <f t="array" ref="B30">_xll.TBXLL_Join(D30:F31,TRUE)</f>
+        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
       </c>
       <c r="C30" s="6"/>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23})</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_Join(D30:F31,FALSE)</v>
       </c>
       <c r="B31" s="3" t="str" cm="1">
-        <f t="array" ref="B31">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
-        <v>11,12,13,21,22,23</v>
+        <f t="array" ref="B31">_xll.TBXLL_Join(D30:F31,FALSE)</f>
+        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
       </c>
       <c r="C31" s="6"/>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="str">
-        <f t="shared" ref="A32:A42" ca="1" si="2">_xlfn.FORMULATEXT(B32)</f>
-        <v>=TBXLL_CellValue(testNamedRange)</v>
-      </c>
-      <c r="B32" s="3" t="b" cm="1">
-        <f t="array" ref="B32">_xll.TBXLL_CellValue(testNamedRange)</f>
-        <v>1</v>
-      </c>
-      <c r="C32" s="6" t="b">
-        <v>1</v>
-      </c>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
+      </c>
+      <c r="B32" s="3" t="str" cm="1">
+        <f t="array" ref="B32">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
+        <v>11,21,12,22,13,23</v>
+      </c>
+      <c r="C32" s="6"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_CellValue(C33)</v>
-      </c>
-      <c r="B33" s="3" cm="1">
-        <f t="array" ref="B33">_xll.TBXLL_CellValue(C33)</f>
-        <v>99</v>
-      </c>
-      <c r="C33" s="6">
-        <v>99</v>
-      </c>
+        <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
+      </c>
+      <c r="B33" s="3" t="str" cm="1">
+        <f t="array" ref="B33">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
+        <v>11,12,13,21,22,23</v>
+      </c>
+      <c r="C33" s="6"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_SheetName(D34)</v>
+        <v>=TBXLL_Join({11,12,13;21,22,23})</v>
       </c>
       <c r="B34" s="3" t="str" cm="1">
-        <f t="array" ref="B34">_xll.TBXLL_SheetName(D34)</f>
-        <v>[tests.xlsx]udf tests</v>
+        <f t="array" ref="B34">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
+        <v>11,12,13,21,22,23</v>
       </c>
       <c r="C34" s="6"/>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B35)</f>
-        <v>=TBXLL_CellAddress(C35)</v>
-      </c>
-      <c r="B35" s="13" t="str" cm="1">
-        <f t="array" ref="B35">_xll.TBXLL_CellAddress(C35)</f>
-        <v>$C$35</v>
-      </c>
-      <c r="C35" s="6"/>
+        <f t="shared" ref="A35:A45" ca="1" si="3">_xlfn.FORMULATEXT(B35)</f>
+        <v>=TBXLL_CellValue(testNamedRange)</v>
+      </c>
+      <c r="B35" s="3" t="b" cm="1">
+        <f t="array" ref="B35">_xll.TBXLL_CellValue(testNamedRange)</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B36)</f>
-        <v>=TBXLL_CellAddress(Sheet2!C35)</v>
-      </c>
-      <c r="B36" s="13" t="str" cm="1">
-        <f t="array" ref="B36">_xll.TBXLL_CellAddress(Sheet2!C35)</f>
-        <v>$C$35</v>
-      </c>
-      <c r="C36" s="6"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_CellValue(C36)</v>
+      </c>
+      <c r="B36" s="3" cm="1">
+        <f t="array" ref="B36">_xll.TBXLL_CellValue(C36)</f>
+        <v>99</v>
+      </c>
+      <c r="C36" s="6">
+        <v>99</v>
+      </c>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B37)</f>
-        <v>=TBXLL_CellAddress_Hidden(C35)</v>
-      </c>
-      <c r="B37" s="13" t="str" cm="1">
-        <f t="array" ref="B37">_xll.TBXLL_CellAddress_Hidden(C35)</f>
-        <v>$C$35</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_SheetName(D37)</v>
+      </c>
+      <c r="B37" s="3" t="str" cm="1">
+        <f t="array" ref="B37">_xll.TBXLL_SheetName(D37)</f>
+        <v>[tests.xlsx]udf tests</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="13"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_IsEmptyCell(C38)</v>
-      </c>
-      <c r="B38" s="3" t="b" cm="1">
-        <f t="array" ref="B38">_xll.TBXLL_IsEmptyCell(C38)</f>
-        <v>1</v>
+        <f ca="1">_xlfn.FORMULATEXT(B38)</f>
+        <v>=TBXLL_CellAddress(C38)</v>
+      </c>
+      <c r="B38" s="13" t="str" cm="1">
+        <f t="array" ref="B38">_xll.TBXLL_CellAddress(C38)</f>
+        <v>$C$38</v>
       </c>
       <c r="C38" s="6"/>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_TestMissing(3.6)</v>
-      </c>
-      <c r="B39" s="3" cm="1">
-        <f t="array" ref="B39">_xll.TBXLL_TestMissing(3.6)</f>
-        <v>4</v>
+        <f ca="1">_xlfn.FORMULATEXT(B39)</f>
+        <v>=TBXLL_CellAddress(Sheet2!C35)</v>
+      </c>
+      <c r="B39" s="13" t="str" cm="1">
+        <f t="array" ref="B39">_xll.TBXLL_CellAddress(Sheet2!C35)</f>
+        <v>$C$35</v>
       </c>
       <c r="C39" s="6"/>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D40:D42,E40:E42)}</v>
-      </c>
-      <c r="B40" s="3">
-        <f t="array" ref="B40:B42">_xll.TBXLL_MultiplyArrays(D40:D42,E40:E42)</f>
-        <v>2</v>
+        <f ca="1">_xlfn.FORMULATEXT(B40)</f>
+        <v>=TBXLL_CellAddress_Hidden(C38)</v>
+      </c>
+      <c r="B40" s="13" t="str" cm="1">
+        <f t="array" ref="B40">_xll.TBXLL_CellAddress_Hidden(C38)</f>
+        <v>$C$38</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
+      <c r="D40" s="13"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D40:D42,E40:E42)}</v>
-      </c>
-      <c r="B41" s="3">
-        <v>20</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_IsEmptyCell(C41)</v>
+      </c>
+      <c r="B41" s="3" t="b" cm="1">
+        <f t="array" ref="B41">_xll.TBXLL_IsEmptyCell(C41)</f>
+        <v>1</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>5</v>
-      </c>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_MultiplyArrays(D40:D42,E40:E42)}</v>
-      </c>
-      <c r="B42" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_TestMissing(3.6)</v>
+      </c>
+      <c r="B42" s="3" cm="1">
+        <f t="array" ref="B42">_xll.TBXLL_TestMissing(3.6)</f>
         <v>4</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
-      </c>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="str">
-        <f t="shared" ref="A43:A50" ca="1" si="3">_xlfn.FORMULATEXT(B43)</f>
-        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
-      </c>
-      <c r="B43" s="5">
-        <f t="array" ref="B43:E43">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="C43" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0.46296296296296297</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{=TBXLL_MultiplyArrays(D43:D45,E43:E45)}</v>
+      </c>
+      <c r="B43" s="3">
+        <f t="array" ref="B43:B45">_xll.TBXLL_MultiplyArrays(D43:D45,E43:E45)</f>
+        <v>2</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
       </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SpeedSafe(100)</v>
-      </c>
-      <c r="B44" s="3" cm="1">
-        <f t="array" ref="B44">_xll.TBXLL_SpeedSafe(100)</f>
-        <v>66671645.919710793</v>
+        <v>{=TBXLL_MultiplyArrays(D43:D45,E43:E45)}</v>
+      </c>
+      <c r="B44" s="3">
+        <v>20</v>
       </c>
       <c r="C44" s="6"/>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SpeedUnsafe(100)</v>
-      </c>
-      <c r="B45" s="3" cm="1">
-        <f t="array" ref="B45">_xll.TBXLL_SpeedUnsafe(100)</f>
-        <v>66671645.919710793</v>
+        <v>{=TBXLL_MultiplyArrays(D43:D45,E43:E45)}</v>
+      </c>
+      <c r="B45" s="3">
+        <v>4</v>
       </c>
       <c r="C45" s="6"/>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="str">
-        <f t="shared" ref="A46" ca="1" si="4">_xlfn.FORMULATEXT(B46)</f>
-        <v>=TBXLL_Timestamp()</v>
-      </c>
-      <c r="B46" s="16" cm="1">
-        <f t="array" aca="1" ref="B46" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>153756.47553669999</v>
-      </c>
-      <c r="C46" s="6"/>
+        <f t="shared" ref="A46:A53" ca="1" si="4">_xlfn.FORMULATEXT(B46)</f>
+        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
+      </c>
+      <c r="B46" s="5">
+        <f t="array" ref="B46:E46">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0.46296296296296297</v>
+      </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_NumberName(9)</v>
-      </c>
-      <c r="B47" s="3" t="str" cm="1">
-        <f t="array" ref="B47">_xll.TBXLL_NumberName(9)</f>
-        <v>Nine</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_SpeedSafe(100)</v>
+      </c>
+      <c r="B47" s="3" cm="1">
+        <f t="array" ref="B47">_xll.TBXLL_SpeedSafe(100)</f>
+        <v>66671645.919710793</v>
       </c>
       <c r="C47" s="6"/>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_RomanNumeral(9)</v>
-      </c>
-      <c r="B48" s="3" t="str" cm="1">
-        <f t="array" ref="B48">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>IX</v>
-      </c>
+        <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_SpeedUnsafe(100)</v>
+      </c>
+      <c r="B48" s="3" cm="1">
+        <f t="array" ref="B48">_xll.TBXLL_SpeedUnsafe(100)</f>
+        <v>66671645.919710793</v>
+      </c>
+      <c r="C48" s="6"/>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_AddDays(NOW(),7)</v>
-      </c>
-      <c r="B49" s="14" cm="1">
-        <f t="array" aca="1" ref="B49" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46087.28896377315</v>
+        <f t="shared" ref="A49" ca="1" si="5">_xlfn.FORMULATEXT(B49)</f>
+        <v>=TBXLL_Timestamp()</v>
+      </c>
+      <c r="B49" s="16" cm="1">
+        <f t="array" aca="1" ref="B49" ca="1">_xll.TBXLL_Timestamp()</f>
+        <v>165090.87213120001</v>
       </c>
       <c r="C49" s="6"/>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_NumberName(9)</v>
+      </c>
+      <c r="B50" s="3" t="str" cm="1">
+        <f t="array" ref="B50">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="H50" s="7"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_RomanNumeral(9)</v>
+      </c>
+      <c r="B51" s="3" t="str" cm="1">
+        <f t="array" ref="B51">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_AddDays(NOW(),7)</v>
+      </c>
+      <c r="B52" s="14" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
+        <v>46087.42014884259</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="H52" s="7"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>=TBXLL_FormatArray({1,2,3},"item")</v>
       </c>
-      <c r="B50" s="13" t="str" cm="1">
-        <f t="array" ref="B50:D50">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
+      <c r="B53" s="13" t="str" cm="1">
+        <f t="array" ref="B53:D53">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
         <v>item_1</v>
       </c>
-      <c r="C50" s="15" t="str">
+      <c r="C53" s="15" t="str">
         <v>item_2</v>
       </c>
-      <c r="D50" s="10" t="str">
+      <c r="D53" s="10" t="str">
         <v>item_3</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7BE7BE-5ECD-46AA-B5DE-326D8600143D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2132F-DB37-4FBF-869D-265E11159995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="396" windowWidth="16818" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="396" windowWidth="16974" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="udf tests" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -265,6 +265,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -834,7 +835,7 @@
       </c>
       <c r="B21" s="4" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">_xll.TBXLL_Now()</f>
-        <v>46080.42014884259</v>
+        <v>46080.516100578701</v>
       </c>
       <c r="C21" s="12"/>
       <c r="H21" s="7"/>
@@ -847,7 +848,7 @@
       </c>
       <c r="B22" s="4">
         <f ca="1">NOW()</f>
-        <v>46080.42014884259</v>
+        <v>46080.516100578701</v>
       </c>
       <c r="C22" s="6"/>
       <c r="H22" s="7"/>
@@ -912,7 +913,7 @@
       </c>
       <c r="B27" s="3" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27" s="6"/>
       <c r="H27" s="7"/>
@@ -1093,7 +1094,7 @@
         <v>$C$38</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="13"/>
+      <c r="D40" s="20"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1223,7 +1224,7 @@
       </c>
       <c r="B49" s="16" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>165090.87213120001</v>
+        <v>173381.10888690001</v>
       </c>
       <c r="C49" s="6"/>
       <c r="H49" s="7"/>
@@ -1258,7 +1259,7 @@
       </c>
       <c r="B52" s="14" cm="1">
         <f t="array" aca="1" ref="B52" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46087.42014884259</v>
+        <v>46087.516100578701</v>
       </c>
       <c r="C52" s="6"/>
       <c r="H52" s="7"/>

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2132F-DB37-4FBF-869D-265E11159995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676C0B54-697C-4902-B96A-0E20221193F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="396" windowWidth="16974" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4158" yWindow="396" windowWidth="16974" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="udf tests" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -265,7 +265,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -835,7 +834,7 @@
       </c>
       <c r="B21" s="4" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">_xll.TBXLL_Now()</f>
-        <v>46080.516100578701</v>
+        <v>46081.399229976851</v>
       </c>
       <c r="C21" s="12"/>
       <c r="H21" s="7"/>
@@ -848,7 +847,7 @@
       </c>
       <c r="B22" s="4">
         <f ca="1">NOW()</f>
-        <v>46080.516100578701</v>
+        <v>46081.399229976851</v>
       </c>
       <c r="C22" s="6"/>
       <c r="H22" s="7"/>
@@ -913,7 +912,7 @@
       </c>
       <c r="B27" s="3" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C27" s="6"/>
       <c r="H27" s="7"/>
@@ -1094,7 +1093,6 @@
         <v>$C$38</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="20"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -1224,7 +1222,7 @@
       </c>
       <c r="B49" s="16" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>173381.10888690001</v>
+        <v>249685.55196509999</v>
       </c>
       <c r="C49" s="6"/>
       <c r="H49" s="7"/>
@@ -1259,7 +1257,7 @@
       </c>
       <c r="B52" s="14" cm="1">
         <f t="array" aca="1" ref="B52" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46087.516100578701</v>
+        <v>46088.399229976851</v>
       </c>
       <c r="C52" s="6"/>
       <c r="H52" s="7"/>

--- a/Tests/tests.xlsx
+++ b/Tests/tests.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waite\Documents\GitHub\tbXLLerator\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676C0B54-697C-4902-B96A-0E20221193F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964C5A80-A916-4AA7-85AA-7E1BAE868523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4158" yWindow="396" windowWidth="16974" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="396" windowWidth="19764" windowHeight="13284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="udf tests" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="testNamedRange" localSheetId="0">'udf tests'!$C$35</definedName>
+    <definedName name="testNamedRange" localSheetId="0">'udf tests'!$C$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -125,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -234,11 +234,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -265,6 +287,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,11 +570,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -592,7 +616,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="str">
-        <f t="shared" ref="A3:A22" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
+        <f t="shared" ref="A3:A25" ca="1" si="0">_xlfn.FORMULATEXT(B3)</f>
         <v>=TBXLL_Multiply("10","2")</v>
       </c>
       <c r="B3" s="3" cm="1">
@@ -646,7 +670,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="str">
-        <f t="shared" ref="A7:A8" ca="1" si="1">_xlfn.FORMULATEXT(B7)</f>
+        <f t="shared" ref="A7:A11" ca="1" si="1">_xlfn.FORMULATEXT(B7)</f>
         <v>=TBXLL_MultiplyQ(D4,E4)</v>
       </c>
       <c r="B7" s="3" cm="1">
@@ -670,72 +694,72 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TBXLL_MultiplyB(10,2)</v>
+      </c>
+      <c r="B9" s="3" cm="1">
+        <f t="array" ref="B9">_xll.TBXLL_MultiplyB(10,2)</f>
+        <v>20</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TBXLL_MultiplyB(D4,E4)</v>
+      </c>
+      <c r="B10" s="3" cm="1">
+        <f t="array" ref="B10">_xll.TBXLL_MultiplyB(D4,E4)</f>
+        <v>20</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=TBXLL_MultiplyB(Sheet2!D5,Sheet2!E5)</v>
+      </c>
+      <c r="B11" s="3" cm="1">
+        <f t="array" ref="B11">_xll.TBXLL_MultiplyB(Sheet2!D5,Sheet2!E5)</f>
+        <v>20</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2)</v>
       </c>
-      <c r="B9" s="3" cm="1">
-        <f t="array" ref="B9">_xll.TBXLL_AddOptional(1,2)</f>
+      <c r="B12" s="3" cm="1">
+        <f t="array" ref="B12">_xll.TBXLL_AddOptional(1,2)</f>
         <v>3</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="str">
+      <c r="C12" s="6"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AddOptional(1,2,3)</v>
       </c>
-      <c r="B10" s="3" cm="1">
-        <f t="array" ref="B10">_xll.TBXLL_AddOptional(1,2,3)</f>
+      <c r="B13" s="3" cm="1">
+        <f t="array" ref="B13">_xll.TBXLL_AddOptional(1,2,3)</f>
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="3" t="str">
+      <c r="C13" s="6"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=TBXLL_AlwaysDiv0()</v>
       </c>
-      <c r="B11" s="3" t="e" cm="1">
-        <f t="array" ref="B11">_xll.TBXLL_AlwaysDiv0()</f>
+      <c r="B14" s="3" t="e" cm="1">
+        <f t="array" ref="B14">_xll.TBXLL_AlwaysDiv0()</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B12)</f>
-        <v>=TBXLL_Divide(10,0)</v>
-      </c>
-      <c r="B12" s="3" t="e" cm="1">
-        <f t="array" ref="B12">_xll.TBXLL_Divide(10,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B13)</f>
-        <v>=TBXLL_FailAfterSum({1,2,3})</v>
-      </c>
-      <c r="B13" s="3" t="e" cm="1">
-        <f t="array" ref="B13">_xll.TBXLL_FailAfterSum({1,2,3})</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B14)</f>
-        <v>=TBXLL_NotFound()</v>
-      </c>
-      <c r="B14" s="3" t="e" cm="1">
-        <f t="array" ref="B14">_xll.TBXLL_NotFound()</f>
-        <v>#N/A</v>
       </c>
       <c r="C14" s="6"/>
       <c r="H14" s="7"/>
@@ -743,11 +767,11 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B15)</f>
-        <v>=TBXLL_SqrtChecked(-1)</v>
+        <v>=TBXLL_Divide(10,0)</v>
       </c>
       <c r="B15" s="3" t="e" cm="1">
-        <f t="array" ref="B15">_xll.TBXLL_SqrtChecked(-1)</f>
-        <v>#NUM!</v>
+        <f t="array" ref="B15">_xll.TBXLL_Divide(10,0)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C15" s="6"/>
       <c r="H15" s="7"/>
@@ -755,10 +779,10 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B16)</f>
-        <v>=TBXLL_TextOnly(25)</v>
+        <v>=TBXLL_FailAfterSum({1,2,3})</v>
       </c>
       <c r="B16" s="3" t="e" cm="1">
-        <f t="array" ref="B16">_xll.TBXLL_TextOnly(25)</f>
+        <f t="array" ref="B16">_xll.TBXLL_FailAfterSum({1,2,3})</f>
         <v>#VALUE!</v>
       </c>
       <c r="C16" s="6"/>
@@ -766,177 +790,177 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_Average({1,2,3})</v>
-      </c>
-      <c r="B17" s="3" cm="1">
-        <f t="array" ref="B17">_xll.TBXLL_Average({1,2,3})</f>
-        <v>2</v>
+        <f ca="1">_xlfn.FORMULATEXT(B17)</f>
+        <v>=TBXLL_NotFound()</v>
+      </c>
+      <c r="B17" s="3" t="e" cm="1">
+        <f t="array" ref="B17">_xll.TBXLL_NotFound()</f>
+        <v>#N/A</v>
       </c>
       <c r="C17" s="6"/>
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_ConditionalAdd(10,D18,"result")</v>
-      </c>
-      <c r="B18" s="3" t="str" cm="1">
-        <f t="array" ref="B18">_xll.TBXLL_ConditionalAdd(10,D18,"result")</f>
-        <v>result: 20</v>
+        <f ca="1">_xlfn.FORMULATEXT(B18)</f>
+        <v>=TBXLL_SqrtChecked(-1)</v>
+      </c>
+      <c r="B18" s="3" t="e" cm="1">
+        <f t="array" ref="B18">_xll.TBXLL_SqrtChecked(-1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_ConditionalAdd(10,D19,"result")</v>
-      </c>
-      <c r="B19" s="3" t="str" cm="1">
-        <f t="array" ref="B19">_xll.TBXLL_ConditionalAdd(10,D19,"result")</f>
-        <v>result: 10</v>
+        <f ca="1">_xlfn.FORMULATEXT(B19)</f>
+        <v>=TBXLL_TextOnly(25)</v>
+      </c>
+      <c r="B19" s="3" t="e" cm="1">
+        <f t="array" ref="B19">_xll.TBXLL_TextOnly(25)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_CountIf(D20:F20,"&gt;=3")</v>
+        <v>=TBXLL_Average({1,2,3})</v>
       </c>
       <c r="B20" s="3" cm="1">
-        <f t="array" ref="B20">_xll.TBXLL_CountIf(D20:F20,"&gt;=3")</f>
+        <f t="array" ref="B20">_xll.TBXLL_Average({1,2,3})</f>
         <v>2</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=TBXLL_Now()</v>
-      </c>
-      <c r="B21" s="4" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">_xll.TBXLL_Now()</f>
-        <v>46081.399229976851</v>
-      </c>
-      <c r="C21" s="12"/>
+        <v>=TBXLL_ConditionalAdd(10,D21,"result")</v>
+      </c>
+      <c r="B21" s="3" t="str" cm="1">
+        <f t="array" ref="B21">_xll.TBXLL_ConditionalAdd(10,D21,"result")</f>
+        <v>result: 20</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=NOW()</v>
-      </c>
-      <c r="B22" s="4">
-        <f ca="1">NOW()</f>
-        <v>46081.399229976851</v>
+        <v>=TBXLL_ConditionalAdd(10,D22,"result")</v>
+      </c>
+      <c r="B22" s="3" t="str" cm="1">
+        <f t="array" ref="B22">_xll.TBXLL_ConditionalAdd(10,D22,"result")</f>
+        <v>result: 10</v>
       </c>
       <c r="C22" s="6"/>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B23)</f>
-        <v>=TBXLL_SqrtChecked(9)</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>=TBXLL_CountIf(D23:F23,"&gt;=3")</v>
       </c>
       <c r="B23" s="3" cm="1">
-        <f t="array" ref="B23">_xll.TBXLL_SqrtChecked(9)</f>
+        <f t="array" ref="B23">_xll.TBXLL_CountIf(D23:F23,"&gt;=3")</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="F23">
+        <v>4</v>
+      </c>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B24)</f>
-        <v>=TBXLL_TextOnly("25")</v>
-      </c>
-      <c r="B24" s="3" t="str" cm="1">
-        <f t="array" ref="B24">_xll.TBXLL_TextOnly("25")</f>
-        <v>OK: 25</v>
-      </c>
-      <c r="C24" s="6"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>=TBXLL_Now()</v>
+      </c>
+      <c r="B24" s="4" cm="1">
+        <f t="array" aca="1" ref="B24" ca="1">_xll.TBXLL_Now()</f>
+        <v>46082.320003935187</v>
+      </c>
+      <c r="C24" s="12"/>
       <c r="H24" s="7"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B25)</f>
-        <v>=TBXLL_Transpose({1;2;3})</v>
-      </c>
-      <c r="B25" s="3" cm="1">
-        <f t="array" ref="B25:D25">_xll.TBXLL_Transpose({1;2;3})</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
+        <f t="shared" ca="1" si="0"/>
+        <v>=NOW()</v>
+      </c>
+      <c r="B25" s="4">
+        <f ca="1">NOW()</f>
+        <v>46082.320003935187</v>
+      </c>
+      <c r="C25" s="6"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="str">
-        <f t="shared" ref="A26:A34" ca="1" si="2">_xlfn.FORMULATEXT(B26)</f>
-        <v>=TBXLL_Upper("mike")</v>
-      </c>
-      <c r="B26" s="3" t="str" cm="1">
-        <f t="array" ref="B26">_xll.TBXLL_Upper("mike")</f>
-        <v>MIKE</v>
+        <f ca="1">_xlfn.FORMULATEXT(B26)</f>
+        <v>=TBXLL_SqrtChecked(9)</v>
+      </c>
+      <c r="B26" s="3" cm="1">
+        <f t="array" ref="B26">_xll.TBXLL_SqrtChecked(9)</f>
+        <v>3</v>
       </c>
       <c r="C26" s="6"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_RecalcCounter()</v>
-      </c>
-      <c r="B27" s="3" cm="1">
-        <f t="array" aca="1" ref="B27" ca="1">_xll.TBXLL_RecalcCounter()</f>
-        <v>2</v>
+        <f ca="1">_xlfn.FORMULATEXT(B27)</f>
+        <v>=TBXLL_TextOnly("25")</v>
+      </c>
+      <c r="B27" s="3" t="str" cm="1">
+        <f t="array" ref="B27">_xll.TBXLL_TextOnly("25")</f>
+        <v>OK: 25</v>
       </c>
       <c r="C27" s="6"/>
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_SumArray({1,2,3})</v>
+        <f ca="1">_xlfn.FORMULATEXT(B28)</f>
+        <v>=TBXLL_Transpose({1;2;3})</v>
       </c>
       <c r="B28" s="3" cm="1">
-        <f t="array" ref="B28">_xll.TBXLL_SumArray({1,2,3})</f>
-        <v>6</v>
-      </c>
-      <c r="C28" s="6"/>
+        <f t="array" ref="B28:D28">_xll.TBXLL_Transpose({1;2;3})</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_SumArray2({1,2,3})</v>
-      </c>
-      <c r="B29" s="3" cm="1">
-        <f t="array" ref="B29">_xll.TBXLL_SumArray2({1,2,3})</f>
-        <v>6</v>
+        <f t="shared" ref="A29:A37" ca="1" si="2">_xlfn.FORMULATEXT(B29)</f>
+        <v>=TBXLL_Upper("mike")</v>
+      </c>
+      <c r="B29" s="3" t="str" cm="1">
+        <f t="array" ref="B29">_xll.TBXLL_Upper("mike")</f>
+        <v>MIKE</v>
       </c>
       <c r="C29" s="6"/>
       <c r="H29" s="7"/>
@@ -944,53 +968,35 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>{=TBXLL_Join(D30:F31,TRUE)}</v>
-      </c>
-      <c r="B30" s="3" t="str">
-        <f t="array" ref="B30">_xll.TBXLL_Join(D30:F31,TRUE)</f>
-        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
+        <v>=TBXLL_RecalcCounter()</v>
+      </c>
+      <c r="B30" s="3" cm="1">
+        <f t="array" aca="1" ref="B30" ca="1">_xll.TBXLL_RecalcCounter()</f>
+        <v>8</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2</v>
-      </c>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_Join(D30:F31,FALSE)</v>
-      </c>
-      <c r="B31" s="3" t="str" cm="1">
-        <f t="array" ref="B31">_xll.TBXLL_Join(D30:F31,FALSE)</f>
-        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
+        <v>=TBXLL_SumArray({1,2,3})</v>
+      </c>
+      <c r="B31" s="3" cm="1">
+        <f t="array" ref="B31">_xll.TBXLL_SumArray({1,2,3})</f>
+        <v>6</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>5</v>
-      </c>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
-      </c>
-      <c r="B32" s="3" t="str" cm="1">
-        <f t="array" ref="B32">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
-        <v>11,21,12,22,13,23</v>
+        <v>=TBXLL_SumArray2({1,2,3})</v>
+      </c>
+      <c r="B32" s="3" cm="1">
+        <f t="array" ref="B32">_xll.TBXLL_SumArray2({1,2,3})</f>
+        <v>6</v>
       </c>
       <c r="C32" s="6"/>
       <c r="H32" s="7"/>
@@ -998,243 +1004,261 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
-      </c>
-      <c r="B33" s="3" t="str" cm="1">
-        <f t="array" ref="B33">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
-        <v>11,12,13,21,22,23</v>
+        <v>{=TBXLL_Join(D33:F34,TRUE)}</v>
+      </c>
+      <c r="B33" s="3" t="str">
+        <f t="array" ref="B33">_xll.TBXLL_Join(D33:F34,TRUE)</f>
+        <v>rc11,rc21,rc12,rc22,rc13,rc23</v>
       </c>
       <c r="C33" s="6"/>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>=TBXLL_Join({11,12,13;21,22,23})</v>
+        <v>=TBXLL_Join(D33:F34,FALSE)</v>
       </c>
       <c r="B34" s="3" t="str" cm="1">
-        <f t="array" ref="B34">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
-        <v>11,12,13,21,22,23</v>
+        <f t="array" ref="B34">_xll.TBXLL_Join(D33:F34,FALSE)</f>
+        <v>rc11,rc12,rc13,rc21,rc22,rc23</v>
       </c>
       <c r="C34" s="6"/>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="str">
-        <f t="shared" ref="A35:A45" ca="1" si="3">_xlfn.FORMULATEXT(B35)</f>
-        <v>=TBXLL_CellValue(testNamedRange)</v>
-      </c>
-      <c r="B35" s="3" t="b" cm="1">
-        <f t="array" ref="B35">_xll.TBXLL_CellValue(testNamedRange)</f>
-        <v>1</v>
-      </c>
-      <c r="C35" s="6" t="b">
-        <v>1</v>
-      </c>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_Join({11,12,13;21,22,23},TRUE)</v>
+      </c>
+      <c r="B35" s="3" t="str" cm="1">
+        <f t="array" ref="B35">_xll.TBXLL_Join({11,12,13;21,22,23},TRUE)</f>
+        <v>11,21,12,22,13,23</v>
+      </c>
+      <c r="C35" s="6"/>
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_CellValue(C36)</v>
-      </c>
-      <c r="B36" s="3" cm="1">
-        <f t="array" ref="B36">_xll.TBXLL_CellValue(C36)</f>
-        <v>99</v>
-      </c>
-      <c r="C36" s="6">
-        <v>99</v>
-      </c>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_Join({11,12,13;21,22,23},FALSE)</v>
+      </c>
+      <c r="B36" s="3" t="str" cm="1">
+        <f t="array" ref="B36">_xll.TBXLL_Join({11,12,13;21,22,23},FALSE)</f>
+        <v>11,12,13,21,22,23</v>
+      </c>
+      <c r="C36" s="6"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_SheetName(D37)</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>=TBXLL_Join({11,12,13;21,22,23})</v>
       </c>
       <c r="B37" s="3" t="str" cm="1">
-        <f t="array" ref="B37">_xll.TBXLL_SheetName(D37)</f>
-        <v>[tests.xlsx]udf tests</v>
+        <f t="array" ref="B37">_xll.TBXLL_Join({11,12,13;21,22,23})</f>
+        <v>11,12,13,21,22,23</v>
       </c>
       <c r="C37" s="6"/>
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B38)</f>
-        <v>=TBXLL_CellAddress(C38)</v>
-      </c>
-      <c r="B38" s="13" t="str" cm="1">
-        <f t="array" ref="B38">_xll.TBXLL_CellAddress(C38)</f>
-        <v>$C$38</v>
-      </c>
-      <c r="C38" s="6"/>
+        <f t="shared" ref="A38:A48" ca="1" si="3">_xlfn.FORMULATEXT(B38)</f>
+        <v>=TBXLL_CellValue(testNamedRange)</v>
+      </c>
+      <c r="B38" s="3" t="b" cm="1">
+        <f t="array" ref="B38">_xll.TBXLL_CellValue(testNamedRange)</f>
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="b">
+        <v>1</v>
+      </c>
       <c r="H38" s="7"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B39)</f>
-        <v>=TBXLL_CellAddress(Sheet2!C35)</v>
-      </c>
-      <c r="B39" s="13" t="str" cm="1">
-        <f t="array" ref="B39">_xll.TBXLL_CellAddress(Sheet2!C35)</f>
-        <v>$C$35</v>
-      </c>
-      <c r="C39" s="6"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_CellValue(C39)</v>
+      </c>
+      <c r="B39" s="3" cm="1">
+        <f t="array" ref="B39">_xll.TBXLL_CellValue(C39)</f>
+        <v>99</v>
+      </c>
+      <c r="C39" s="6">
+        <v>99</v>
+      </c>
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(B40)</f>
-        <v>=TBXLL_CellAddress_Hidden(C38)</v>
-      </c>
-      <c r="B40" s="13" t="str" cm="1">
-        <f t="array" ref="B40">_xll.TBXLL_CellAddress_Hidden(C38)</f>
-        <v>$C$38</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>=TBXLL_SheetName(D40)</v>
+      </c>
+      <c r="B40" s="3" t="str" cm="1">
+        <f t="array" ref="B40">_xll.TBXLL_SheetName(D40)</f>
+        <v>[tests.xlsx]udf tests</v>
       </c>
       <c r="C40" s="6"/>
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_IsEmptyCell(C41)</v>
-      </c>
-      <c r="B41" s="3" t="b" cm="1">
-        <f t="array" ref="B41">_xll.TBXLL_IsEmptyCell(C41)</f>
-        <v>1</v>
+        <f ca="1">_xlfn.FORMULATEXT(B41)</f>
+        <v>=TBXLL_CellAddress(C41)</v>
+      </c>
+      <c r="B41" s="13" t="str" cm="1">
+        <f t="array" ref="B41">_xll.TBXLL_CellAddress(C41)</f>
+        <v>$C$41</v>
       </c>
       <c r="C41" s="6"/>
       <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>=TBXLL_TestMissing(3.6)</v>
-      </c>
-      <c r="B42" s="3" cm="1">
-        <f t="array" ref="B42">_xll.TBXLL_TestMissing(3.6)</f>
-        <v>4</v>
+        <f ca="1">_xlfn.FORMULATEXT(B42)</f>
+        <v>=TBXLL_CellAddress(Sheet2!C35)</v>
+      </c>
+      <c r="B42" s="13" t="str" cm="1">
+        <f t="array" ref="B42">_xll.TBXLL_CellAddress(Sheet2!C35)</f>
+        <v>$C$35</v>
       </c>
       <c r="C42" s="6"/>
       <c r="H42" s="7"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>{=TBXLL_MultiplyArrays(D43:D45,E43:E45)}</v>
-      </c>
-      <c r="B43" s="3">
-        <f t="array" ref="B43:B45">_xll.TBXLL_MultiplyArrays(D43:D45,E43:E45)</f>
-        <v>2</v>
+        <f ca="1">_xlfn.FORMULATEXT(B43)</f>
+        <v>=TBXLL_CellAddress_Hidden(C41)</v>
+      </c>
+      <c r="B43" s="13" t="str" cm="1">
+        <f t="array" ref="B43">_xll.TBXLL_CellAddress_Hidden(C41)</f>
+        <v>$C$41</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
       <c r="H43" s="7"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{=TBXLL_MultiplyArrays(D43:D45,E43:E45)}</v>
-      </c>
-      <c r="B44" s="3">
-        <v>20</v>
+        <v>=TBXLL_IsEmptyCell(C44)</v>
+      </c>
+      <c r="B44" s="3" t="b" cm="1">
+        <f t="array" ref="B44">_xll.TBXLL_IsEmptyCell(C44)</f>
+        <v>1</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44">
-        <v>4</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
       <c r="H44" s="7"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>{=TBXLL_MultiplyArrays(D43:D45,E43:E45)}</v>
-      </c>
-      <c r="B45" s="3">
+        <v>=TBXLL_TestMissing(3.6)</v>
+      </c>
+      <c r="B45" s="3" cm="1">
+        <f t="array" ref="B45">_xll.TBXLL_TestMissing(3.6)</f>
         <v>4</v>
       </c>
       <c r="C45" s="6"/>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
       <c r="H45" s="7"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="str">
-        <f t="shared" ref="A46:A53" ca="1" si="4">_xlfn.FORMULATEXT(B46)</f>
-        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
-      </c>
-      <c r="B46" s="5">
-        <f t="array" ref="B46:E46">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D46" s="9">
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="E46" s="9">
-        <v>0.46296296296296297</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{=TBXLL_MultiplyArrays(D46:D48,E46:E48)}</v>
+      </c>
+      <c r="B46" s="3">
+        <f t="array" ref="B46:B48">_xll.TBXLL_MultiplyArrays(D46:D48,E46:E48)</f>
+        <v>2</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>=TBXLL_SpeedSafe(100)</v>
-      </c>
-      <c r="B47" s="3" cm="1">
-        <f t="array" ref="B47">_xll.TBXLL_SpeedSafe(100)</f>
-        <v>66671645.919710793</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{=TBXLL_MultiplyArrays(D46:D48,E46:E48)}</v>
+      </c>
+      <c r="B47" s="3">
+        <v>20</v>
       </c>
       <c r="C47" s="6"/>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
       <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>=TBXLL_SpeedUnsafe(100)</v>
-      </c>
-      <c r="B48" s="3" cm="1">
-        <f t="array" ref="B48">_xll.TBXLL_SpeedUnsafe(100)</f>
-        <v>66671645.919710793</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>{=TBXLL_MultiplyArrays(D46:D48,E46:E48)}</v>
+      </c>
+      <c r="B48" s="3">
+        <v>4</v>
       </c>
       <c r="C48" s="6"/>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
       <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="str">
-        <f t="shared" ref="A49" ca="1" si="5">_xlfn.FORMULATEXT(B49)</f>
-        <v>=TBXLL_Timestamp()</v>
-      </c>
-      <c r="B49" s="16" cm="1">
-        <f t="array" aca="1" ref="B49" ca="1">_xll.TBXLL_Timestamp()</f>
-        <v>249685.55196509999</v>
-      </c>
-      <c r="C49" s="6"/>
+        <f t="shared" ref="A49:A58" ca="1" si="4">_xlfn.FORMULATEXT(B49)</f>
+        <v>{=TBXLL_NormalizeArray({4,9,16,25})}</v>
+      </c>
+      <c r="B49" s="5">
+        <f t="array" ref="B49:E49">_xll.TBXLL_NormalizeArray({4,9,16,25})</f>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D49" s="9">
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="E49" s="9">
+        <v>0.46296296296296297</v>
+      </c>
       <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>=TBXLL_NumberName(9)</v>
-      </c>
-      <c r="B50" s="3" t="str" cm="1">
-        <f t="array" ref="B50">_xll.TBXLL_NumberName(9)</f>
-        <v>Nine</v>
+        <v>=TBXLL_SpeedSafe(100)</v>
+      </c>
+      <c r="B50" s="3" cm="1">
+        <f t="array" ref="B50">_xll.TBXLL_SpeedSafe(100)</f>
+        <v>66671645.919710793</v>
       </c>
       <c r="C50" s="6"/>
       <c r="H50" s="7"/>
@@ -1242,22 +1266,23 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>=TBXLL_RomanNumeral(9)</v>
-      </c>
-      <c r="B51" s="3" t="str" cm="1">
-        <f t="array" ref="B51">_xll.TBXLL_RomanNumeral(9)</f>
-        <v>IX</v>
-      </c>
+        <v>=TBXLL_SpeedUnsafe(100)</v>
+      </c>
+      <c r="B51" s="3" cm="1">
+        <f t="array" ref="B51">_xll.TBXLL_SpeedUnsafe(100)</f>
+        <v>66671645.919710793</v>
+      </c>
+      <c r="C51" s="6"/>
       <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>=TBXLL_AddDays(NOW(),7)</v>
-      </c>
-      <c r="B52" s="14" cm="1">
-        <f t="array" aca="1" ref="B52" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
-        <v>46088.399229976851</v>
+        <f t="shared" ref="A52" ca="1" si="5">_xlfn.FORMULATEXT(B52)</f>
+        <v>=TBXLL_Timestamp()</v>
+      </c>
+      <c r="B52" s="16" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">_xll.TBXLL_Timestamp()</f>
+        <v>329241.8629525</v>
       </c>
       <c r="C52" s="6"/>
       <c r="H52" s="7"/>
@@ -1265,22 +1290,72 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_NumberName(9)</v>
+      </c>
+      <c r="B53" s="3" t="str" cm="1">
+        <f t="array" ref="B53">_xll.TBXLL_NumberName(9)</f>
+        <v>Nine</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_RomanNumeral(9)</v>
+      </c>
+      <c r="B54" s="3" t="str" cm="1">
+        <f t="array" ref="B54">_xll.TBXLL_RomanNumeral(9)</f>
+        <v>IX</v>
+      </c>
+      <c r="H54" s="7"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_AddDays(NOW(),7)</v>
+      </c>
+      <c r="B55" s="14" cm="1">
+        <f t="array" aca="1" ref="B55" ca="1">_xll.TBXLL_AddDays(NOW(),7)</f>
+        <v>46089.320003935187</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="3" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>=TBXLL_SumFP12(D46:E48)</v>
+      </c>
+      <c r="B56" cm="1">
+        <f t="array" ref="B56">_xll.TBXLL_SumFP12(D46:E48)</f>
+        <v>16</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="H56" s="7"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="20" t="str">
+        <f t="shared" ca="1" si="4"/>
         <v>=TBXLL_FormatArray({1,2,3},"item")</v>
       </c>
-      <c r="B53" s="13" t="str" cm="1">
-        <f t="array" ref="B53:D53">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
+      <c r="B57" s="13" t="str" cm="1">
+        <f t="array" ref="B57:D57">_xll.TBXLL_FormatArray({1,2,3},"item")</f>
         <v>item_1</v>
       </c>
-      <c r="C53" s="15" t="str">
+      <c r="C57" s="15" t="str">
         <v>item_2</v>
       </c>
-      <c r="D53" s="10" t="str">
+      <c r="D57" s="10" t="str">
         <v>item_3</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="11"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
